--- a/input/dataset/data.xlsx
+++ b/input/dataset/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/Analysis/MSNAEducation/input/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5EE1C02-B331-4513-8FCB-A236A7C7A6DD}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3F38E6-D927-4951-85A4-9A72E399F57B}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
   </bookViews>
   <sheets>
     <sheet name="HH loop" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="69">
   <si>
     <t>uuid</t>
   </si>
@@ -222,15 +222,6 @@
     <t>primary, year2</t>
   </si>
   <si>
-    <t>kindergarden</t>
-  </si>
-  <si>
-    <t>upper secondary, year1</t>
-  </si>
-  <si>
-    <t>intermediate, year1</t>
-  </si>
-  <si>
     <t>cash</t>
   </si>
   <si>
@@ -238,6 +229,21 @@
   </si>
   <si>
     <t>pippo</t>
+  </si>
+  <si>
+    <t>upper secondary, year12</t>
+  </si>
+  <si>
+    <t>lower secondary, year9</t>
+  </si>
+  <si>
+    <t>primary, year7</t>
+  </si>
+  <si>
+    <t>primary, year5</t>
+  </si>
+  <si>
+    <t>primary, year3</t>
   </si>
 </sst>
 </file>
@@ -665,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BADB42-A13D-41D4-92FA-299C3FB67C7A}">
   <dimension ref="A1:K10438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -787,7 +793,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1393,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D8463A-BC38-4B3C-A2FA-F7194594359A}">
   <dimension ref="A1:O54049"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1461,7 +1467,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1494,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.75">
@@ -1608,7 +1614,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1752,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1776,7 +1782,7 @@
         <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.75">
@@ -1796,7 +1802,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1890,7 +1896,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1937,7 +1943,7 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1964,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.75">
@@ -2078,7 +2084,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -2172,7 +2178,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -2199,7 +2205,7 @@
         <v>12</v>
       </c>
       <c r="O17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.75">

--- a/input/dataset/data.xlsx
+++ b/input/dataset/data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="258" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3F38E6-D927-4951-85A4-9A72E399F57B}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
   </bookViews>
   <sheets>
     <sheet name="HH loop" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BADB42-A13D-41D4-92FA-299C3FB67C7A}">
   <dimension ref="A1:K10438"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D8463A-BC38-4B3C-A2FA-F7194594359A}">
   <dimension ref="A1:O54049"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/input/dataset/data.xlsx
+++ b/input/dataset/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/Analysis/MSNAEducation/input/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E3F38E6-D927-4951-85A4-9A72E399F57B}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D7E33AB-EB38-4CE0-974A-156002DBF010}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
   </bookViews>
   <sheets>
     <sheet name="HH loop" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,6 @@
     <t>pippo</t>
   </si>
   <si>
-    <t>upper secondary, year12</t>
-  </si>
-  <si>
     <t>lower secondary, year9</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>primary, year3</t>
+  </si>
+  <si>
+    <t>secondaire deuxième cycle, year12</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BADB42-A13D-41D4-92FA-299C3FB67C7A}">
   <dimension ref="A1:K10438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D8463A-BC38-4B3C-A2FA-F7194594359A}">
   <dimension ref="A1:O54049"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1467,7 +1467,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1802,7 +1802,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1896,7 +1896,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1943,7 +1943,7 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -2084,7 +2084,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -2178,7 +2178,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>

--- a/input/dataset/data.xlsx
+++ b/input/dataset/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/Analysis/MSNAEducation/input/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D7E33AB-EB38-4CE0-974A-156002DBF010}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{423DEBA3-B1EC-4C7E-AB8E-7EE2ADE676DE}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
   </bookViews>
@@ -216,12 +216,6 @@
     <t>madrasa</t>
   </si>
   <si>
-    <t>primary, year1</t>
-  </si>
-  <si>
-    <t>primary, year2</t>
-  </si>
-  <si>
     <t>cash</t>
   </si>
   <si>
@@ -231,19 +225,25 @@
     <t>pippo</t>
   </si>
   <si>
-    <t>lower secondary, year9</t>
+    <t>Primary_Grade_1</t>
   </si>
   <si>
-    <t>primary, year7</t>
+    <t>Primary_Grade_2</t>
   </si>
   <si>
-    <t>primary, year5</t>
+    <t>Primary_Grade_5</t>
   </si>
   <si>
-    <t>primary, year3</t>
+    <t>Primary_Grade_3</t>
   </si>
   <si>
-    <t>secondaire deuxième cycle, year12</t>
+    <t>Primary_Grade_7</t>
+  </si>
+  <si>
+    <t>Lower_Secondary_Grade_9</t>
+  </si>
+  <si>
+    <t>Upper_Secondary_Grade_10</t>
   </si>
 </sst>
 </file>
@@ -270,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +293,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -323,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,6 +341,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,7 +800,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1400,13 +1407,13 @@
   <dimension ref="A1:O54049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="4" max="4" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="27.6796875" customWidth="1"/>
+    <col min="6" max="6" width="40.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.75">
@@ -1473,7 +1480,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1500,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.75">
@@ -1550,50 +1557,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="M4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1614,7 +1621,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1758,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1782,7 +1789,7 @@
         <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.75">
@@ -1802,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1896,7 +1903,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1943,7 +1950,7 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1970,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.75">
@@ -2084,7 +2091,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -2178,7 +2185,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -2205,7 +2212,7 @@
         <v>12</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.75">

--- a/input/dataset/data.xlsx
+++ b/input/dataset/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/Analysis/MSNAEducation/input/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{423DEBA3-B1EC-4C7E-AB8E-7EE2ADE676DE}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AEC9D6D-7602-4FC3-84D2-D04827FA7BBB}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
   </bookViews>
@@ -1407,7 +1407,7 @@
   <dimension ref="A1:O54049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1803,7 +1803,7 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>

--- a/input/dataset/data.xlsx
+++ b/input/dataset/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/Analysis/MSNAEducation/input/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AEC9D6D-7602-4FC3-84D2-D04827FA7BBB}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E37B46B-8C18-42BB-84C1-E1BD5BD316B3}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
   </bookViews>
@@ -225,25 +225,25 @@
     <t>pippo</t>
   </si>
   <si>
-    <t>Primary_Grade_1</t>
+    <t>primary_grade_1</t>
   </si>
   <si>
-    <t>Primary_Grade_2</t>
+    <t>primary_grade_2</t>
   </si>
   <si>
-    <t>Primary_Grade_5</t>
+    <t>primary_grade_5</t>
   </si>
   <si>
-    <t>Primary_Grade_3</t>
+    <t>primary_grade_3</t>
   </si>
   <si>
-    <t>Primary_Grade_7</t>
+    <t>primary_grade_7</t>
   </si>
   <si>
-    <t>Lower_Secondary_Grade_9</t>
+    <t>lower_secondary_grade_9</t>
   </si>
   <si>
-    <t>Upper_Secondary_Grade_10</t>
+    <t>upper_secondary_grade_10</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,7 @@
   <dimension ref="A1:O54049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1568,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>25</v>
@@ -1803,7 +1803,7 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>

--- a/input/dataset/data.xlsx
+++ b/input/dataset/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/Analysis/MSNAEducation/input/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E37B46B-8C18-42BB-84C1-E1BD5BD316B3}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7592643-7587-4107-8318-B7627CE19A7A}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
   </bookViews>
   <sheets>
     <sheet name="HH loop" sheetId="1" r:id="rId1"/>
     <sheet name="edu loop" sheetId="2" r:id="rId2"/>
+    <sheet name="wgss" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="80">
   <si>
     <t>uuid</t>
   </si>
@@ -237,13 +238,46 @@
     <t>primary_grade_3</t>
   </si>
   <si>
-    <t>primary_grade_7</t>
-  </si>
-  <si>
     <t>lower_secondary_grade_9</t>
   </si>
   <si>
     <t>upper_secondary_grade_10</t>
+  </si>
+  <si>
+    <t>difficulty_seeing</t>
+  </si>
+  <si>
+    <t>difficulty_hearing</t>
+  </si>
+  <si>
+    <t>difficulty_walking</t>
+  </si>
+  <si>
+    <t>difficulty_remembering</t>
+  </si>
+  <si>
+    <t>difficulty_self_care</t>
+  </si>
+  <si>
+    <t>difficulty_communicating</t>
+  </si>
+  <si>
+    <t>a_lot_of_difficulty</t>
+  </si>
+  <si>
+    <t>no_difficulty</t>
+  </si>
+  <si>
+    <t>cannot_do_at_all</t>
+  </si>
+  <si>
+    <t>dont_know</t>
+  </si>
+  <si>
+    <t>some_difficulty</t>
+  </si>
+  <si>
+    <t>primary_grade_7</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1441,7 @@
   <dimension ref="A1:O54049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1809,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1903,7 +1937,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -2185,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -8200,4 +8234,6547 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E5E3D4-B3C4-4861-8FC5-05A8FCCE6E1C}">
+  <dimension ref="A1:J54049"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B145" s="1"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B183" s="1"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B218" s="1"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B266" s="1"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B325" s="1"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B394" s="1"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B396" s="1"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B413" s="1"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B430" s="1"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B447" s="1"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B448" s="1"/>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B459" s="1"/>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B474" s="1"/>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B568" s="1"/>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B570" s="1"/>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B596" s="1"/>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B597" s="1"/>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B708" s="1"/>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B724" s="1"/>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B763" s="1"/>
+    </row>
+    <row r="841" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B841" s="1"/>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A856" s="1"/>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A857" s="1"/>
+    </row>
+    <row r="872" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B872" s="1"/>
+    </row>
+    <row r="922" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B922" s="1"/>
+    </row>
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1119" s="1"/>
+    </row>
+    <row r="1196" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1196" s="1"/>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1245" s="1"/>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1246" s="1"/>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1247" s="1"/>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1248" s="1"/>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1249" s="1"/>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1250" s="1"/>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1251" s="1"/>
+    </row>
+    <row r="1296" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1296" s="1"/>
+    </row>
+    <row r="1300" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1300" s="1"/>
+    </row>
+    <row r="1394" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1394" s="1"/>
+    </row>
+    <row r="1447" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1447" s="1"/>
+    </row>
+    <row r="1751" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1751" s="1"/>
+    </row>
+    <row r="1752" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1752" s="1"/>
+    </row>
+    <row r="1753" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1753" s="1"/>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B1767" s="1"/>
+    </row>
+    <row r="1775" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1775" s="1"/>
+    </row>
+    <row r="1776" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A1776" s="1"/>
+    </row>
+    <row r="1777" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1777" s="1"/>
+    </row>
+    <row r="1784" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1784" s="1"/>
+    </row>
+    <row r="1785" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1785" s="1"/>
+    </row>
+    <row r="1786" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1786" s="1"/>
+    </row>
+    <row r="1787" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1787" s="1"/>
+    </row>
+    <row r="1890" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1890" s="1"/>
+    </row>
+    <row r="1911" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1911" s="1"/>
+    </row>
+    <row r="1931" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1931" s="1"/>
+    </row>
+    <row r="1948" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1948" s="1"/>
+    </row>
+    <row r="1975" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1975" s="1"/>
+    </row>
+    <row r="1984" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B1984" s="1"/>
+    </row>
+    <row r="2034" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2034" s="1"/>
+    </row>
+    <row r="2063" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2063" s="1"/>
+    </row>
+    <row r="2073" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2073" s="1"/>
+    </row>
+    <row r="2074" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2074" s="1"/>
+    </row>
+    <row r="2075" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2075" s="1"/>
+    </row>
+    <row r="2201" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2201" s="1"/>
+    </row>
+    <row r="2235" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2235" s="1"/>
+    </row>
+    <row r="2334" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2334" s="1"/>
+    </row>
+    <row r="2358" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2358" s="1"/>
+    </row>
+    <row r="2382" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2382" s="1"/>
+    </row>
+    <row r="2414" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2414" s="1"/>
+    </row>
+    <row r="2423" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2423" s="1"/>
+    </row>
+    <row r="2425" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2425" s="1"/>
+    </row>
+    <row r="2430" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2430" s="1"/>
+    </row>
+    <row r="2477" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2477" s="1"/>
+    </row>
+    <row r="2515" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2515" s="1"/>
+    </row>
+    <row r="2537" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2537" s="1"/>
+    </row>
+    <row r="2593" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2593" s="1"/>
+    </row>
+    <row r="2658" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2658" s="1"/>
+    </row>
+    <row r="2659" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2659" s="1"/>
+    </row>
+    <row r="2660" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2660" s="1"/>
+    </row>
+    <row r="2661" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2661" s="1"/>
+    </row>
+    <row r="2662" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2662" s="1"/>
+    </row>
+    <row r="2701" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2701" s="1"/>
+    </row>
+    <row r="2806" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B2806" s="1"/>
+    </row>
+    <row r="2809" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2809" s="1"/>
+    </row>
+    <row r="2810" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2810" s="1"/>
+    </row>
+    <row r="2811" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2811" s="1"/>
+    </row>
+    <row r="2812" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2812" s="1"/>
+    </row>
+    <row r="2813" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B2813" s="1"/>
+    </row>
+    <row r="2861" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2861" s="1"/>
+    </row>
+    <row r="2890" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2890" s="1"/>
+    </row>
+    <row r="2918" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2918" s="1"/>
+    </row>
+    <row r="2941" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2941" s="1"/>
+    </row>
+    <row r="2942" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2942" s="1"/>
+    </row>
+    <row r="2943" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2943" s="1"/>
+    </row>
+    <row r="2944" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2944" s="1"/>
+    </row>
+    <row r="2945" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2945" s="1"/>
+    </row>
+    <row r="2980" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B2980" s="1"/>
+    </row>
+    <row r="3007" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3007" s="1"/>
+    </row>
+    <row r="3013" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3013" s="1"/>
+    </row>
+    <row r="3020" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3020" s="1"/>
+    </row>
+    <row r="3080" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3080" s="1"/>
+    </row>
+    <row r="3141" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3141" s="1"/>
+    </row>
+    <row r="3378" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3378" s="1"/>
+    </row>
+    <row r="3438" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3438" s="1"/>
+    </row>
+    <row r="3524" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3524" s="1"/>
+    </row>
+    <row r="3525" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3525" s="1"/>
+    </row>
+    <row r="3526" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3526" s="1"/>
+    </row>
+    <row r="3527" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3527" s="1"/>
+    </row>
+    <row r="3528" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3528" s="1"/>
+      <c r="B3528" s="1"/>
+    </row>
+    <row r="3529" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3529" s="1"/>
+    </row>
+    <row r="3563" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3563" s="1"/>
+    </row>
+    <row r="3578" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3578" s="1"/>
+    </row>
+    <row r="3684" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3684" s="1"/>
+    </row>
+    <row r="3686" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3686" s="1"/>
+    </row>
+    <row r="3710" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3710" s="1"/>
+    </row>
+    <row r="3815" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3815" s="1"/>
+    </row>
+    <row r="3816" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3816" s="1"/>
+    </row>
+    <row r="3817" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3817" s="1"/>
+    </row>
+    <row r="3818" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3818" s="1"/>
+    </row>
+    <row r="3819" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3819" s="1"/>
+    </row>
+    <row r="3823" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3823" s="1"/>
+    </row>
+    <row r="3824" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3824" s="1"/>
+    </row>
+    <row r="3825" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3825" s="1"/>
+    </row>
+    <row r="3826" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3826" s="1"/>
+    </row>
+    <row r="3827" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3827" s="1"/>
+    </row>
+    <row r="3828" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3828" s="1"/>
+    </row>
+    <row r="3829" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3829" s="1"/>
+    </row>
+    <row r="3830" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3830" s="1"/>
+    </row>
+    <row r="3831" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3831" s="1"/>
+    </row>
+    <row r="3832" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3832" s="1"/>
+    </row>
+    <row r="3833" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3833" s="1"/>
+    </row>
+    <row r="3834" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3834" s="1"/>
+    </row>
+    <row r="3860" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3860" s="1"/>
+    </row>
+    <row r="3902" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3902" s="1"/>
+    </row>
+    <row r="3930" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3930" s="1"/>
+    </row>
+    <row r="3931" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3931" s="1"/>
+    </row>
+    <row r="3932" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3932" s="1"/>
+    </row>
+    <row r="3933" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3933" s="1"/>
+      <c r="B3933" s="1"/>
+    </row>
+    <row r="3934" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3934" s="1"/>
+    </row>
+    <row r="3935" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3935" s="1"/>
+    </row>
+    <row r="3936" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3936" s="1"/>
+    </row>
+    <row r="3937" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3937" s="1"/>
+    </row>
+    <row r="3938" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3938" s="1"/>
+    </row>
+    <row r="3939" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3939" s="1"/>
+    </row>
+    <row r="3974" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B3974" s="1"/>
+    </row>
+    <row r="4113" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4113" s="1"/>
+    </row>
+    <row r="4209" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4209" s="1"/>
+    </row>
+    <row r="4233" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4233" s="1"/>
+    </row>
+    <row r="4279" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4279" s="1"/>
+    </row>
+    <row r="4338" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4338" s="1"/>
+    </row>
+    <row r="4339" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4339" s="1"/>
+    </row>
+    <row r="4340" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4340" s="1"/>
+    </row>
+    <row r="4341" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4341" s="1"/>
+    </row>
+    <row r="4342" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4342" s="1"/>
+    </row>
+    <row r="4343" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4343" s="1"/>
+    </row>
+    <row r="4344" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4344" s="1"/>
+    </row>
+    <row r="4502" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4502" s="1"/>
+    </row>
+    <row r="4619" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4619" s="1"/>
+    </row>
+    <row r="4626" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4626" s="1"/>
+    </row>
+    <row r="4653" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4653" s="1"/>
+    </row>
+    <row r="4803" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4803" s="1"/>
+    </row>
+    <row r="4819" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4819" s="1"/>
+    </row>
+    <row r="4835" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4835" s="1"/>
+    </row>
+    <row r="4836" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4836" s="1"/>
+    </row>
+    <row r="4837" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4837" s="1"/>
+    </row>
+    <row r="4838" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4838" s="1"/>
+    </row>
+    <row r="4839" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4839" s="1"/>
+    </row>
+    <row r="4840" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4840" s="1"/>
+    </row>
+    <row r="4914" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4914" s="1"/>
+    </row>
+    <row r="4944" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4944" s="1"/>
+    </row>
+    <row r="4978" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B4978" s="1"/>
+    </row>
+    <row r="5051" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5051" s="1"/>
+    </row>
+    <row r="5123" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5123" s="1"/>
+    </row>
+    <row r="5193" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5193" s="1"/>
+    </row>
+    <row r="5225" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5225" s="1"/>
+    </row>
+    <row r="5226" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5226" s="1"/>
+    </row>
+    <row r="5227" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5227" s="1"/>
+    </row>
+    <row r="5228" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5228" s="1"/>
+      <c r="B5228" s="1"/>
+    </row>
+    <row r="5229" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5229" s="1"/>
+    </row>
+    <row r="5230" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5230" s="1"/>
+    </row>
+    <row r="5231" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5231" s="1"/>
+    </row>
+    <row r="5232" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5232" s="1"/>
+    </row>
+    <row r="5303" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5303" s="1"/>
+    </row>
+    <row r="5329" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5329" s="1"/>
+    </row>
+    <row r="5410" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5410" s="1"/>
+    </row>
+    <row r="5495" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5495" s="1"/>
+    </row>
+    <row r="5545" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5545" s="1"/>
+    </row>
+    <row r="5553" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5553" s="1"/>
+    </row>
+    <row r="5580" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5580" s="1"/>
+    </row>
+    <row r="5694" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5694" s="1"/>
+    </row>
+    <row r="5703" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5703" s="1"/>
+    </row>
+    <row r="5771" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5771" s="1"/>
+      <c r="B5771" s="1"/>
+    </row>
+    <row r="5772" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5772" s="1"/>
+    </row>
+    <row r="5773" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A5773" s="1"/>
+    </row>
+    <row r="5880" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B5880" s="1"/>
+    </row>
+    <row r="5919" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A5919" s="1"/>
+    </row>
+    <row r="5920" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A5920" s="1"/>
+    </row>
+    <row r="5921" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A5921" s="1"/>
+    </row>
+    <row r="5922" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A5922" s="1"/>
+    </row>
+    <row r="6042" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6042" s="1"/>
+    </row>
+    <row r="6071" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6071" s="1"/>
+    </row>
+    <row r="6105" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6105" s="1"/>
+    </row>
+    <row r="6199" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6199" s="1"/>
+    </row>
+    <row r="6258" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6258" s="1"/>
+    </row>
+    <row r="6273" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6273" s="1"/>
+    </row>
+    <row r="6288" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6288" s="1"/>
+    </row>
+    <row r="6341" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6341" s="1"/>
+    </row>
+    <row r="6408" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6408" s="1"/>
+    </row>
+    <row r="6451" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6451" s="1"/>
+    </row>
+    <row r="6452" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6452" s="1"/>
+    </row>
+    <row r="6453" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6453" s="1"/>
+    </row>
+    <row r="6454" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6454" s="1"/>
+    </row>
+    <row r="6455" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6455" s="1"/>
+    </row>
+    <row r="6486" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6486" s="1"/>
+    </row>
+    <row r="6487" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6487" s="1"/>
+    </row>
+    <row r="6488" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6488" s="1"/>
+    </row>
+    <row r="6489" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6489" s="1"/>
+    </row>
+    <row r="6490" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6490" s="1"/>
+    </row>
+    <row r="6491" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6491" s="1"/>
+    </row>
+    <row r="6492" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6492" s="1"/>
+    </row>
+    <row r="6509" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6509" s="1"/>
+    </row>
+    <row r="6537" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6537" s="1"/>
+    </row>
+    <row r="6650" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6650" s="1"/>
+    </row>
+    <row r="6733" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6733" s="1"/>
+    </row>
+    <row r="6854" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B6854" s="1"/>
+    </row>
+    <row r="6983" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6983" s="1"/>
+    </row>
+    <row r="6984" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6984" s="1"/>
+    </row>
+    <row r="6985" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A6985" s="1"/>
+    </row>
+    <row r="7269" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7269" s="1"/>
+    </row>
+    <row r="7294" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7294" s="1"/>
+    </row>
+    <row r="7300" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7300" s="1"/>
+    </row>
+    <row r="7360" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7360" s="1"/>
+    </row>
+    <row r="7365" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7365" s="1"/>
+    </row>
+    <row r="7452" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7452" s="1"/>
+    </row>
+    <row r="7558" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7558" s="1"/>
+    </row>
+    <row r="7569" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7569" s="1"/>
+    </row>
+    <row r="7626" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7626" s="1"/>
+    </row>
+    <row r="7717" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7717" s="1"/>
+    </row>
+    <row r="7741" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7741" s="1"/>
+    </row>
+    <row r="7835" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7835" s="1"/>
+    </row>
+    <row r="7858" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7858" s="1"/>
+    </row>
+    <row r="7874" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7874" s="1"/>
+    </row>
+    <row r="7884" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B7884" s="1"/>
+    </row>
+    <row r="8064" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8064" s="1"/>
+    </row>
+    <row r="8067" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8067" s="1"/>
+    </row>
+    <row r="8072" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8072" s="1"/>
+    </row>
+    <row r="8074" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8074" s="1"/>
+    </row>
+    <row r="8083" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8083" s="1"/>
+    </row>
+    <row r="8132" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8132" s="1"/>
+    </row>
+    <row r="8200" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8200" s="1"/>
+    </row>
+    <row r="8250" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8250" s="1"/>
+    </row>
+    <row r="8285" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8285" s="1"/>
+    </row>
+    <row r="8300" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8300" s="1"/>
+    </row>
+    <row r="8311" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8311" s="1"/>
+    </row>
+    <row r="8313" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8313" s="1"/>
+    </row>
+    <row r="8338" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8338" s="1"/>
+    </row>
+    <row r="8350" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8350" s="1"/>
+    </row>
+    <row r="8367" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8367" s="1"/>
+    </row>
+    <row r="8371" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8371" s="1"/>
+    </row>
+    <row r="8406" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8406" s="1"/>
+    </row>
+    <row r="8419" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8419" s="1"/>
+    </row>
+    <row r="8466" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8466" s="1"/>
+    </row>
+    <row r="8467" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8467" s="1"/>
+    </row>
+    <row r="8468" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8468" s="1"/>
+    </row>
+    <row r="8469" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8469" s="1"/>
+    </row>
+    <row r="8470" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8470" s="1"/>
+    </row>
+    <row r="8471" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8471" s="1"/>
+    </row>
+    <row r="8491" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8491" s="1"/>
+    </row>
+    <row r="8501" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8501" s="1"/>
+    </row>
+    <row r="8502" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8502" s="1"/>
+    </row>
+    <row r="8503" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8503" s="1"/>
+    </row>
+    <row r="8504" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8504" s="1"/>
+    </row>
+    <row r="8517" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8517" s="1"/>
+    </row>
+    <row r="8528" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8528" s="1"/>
+    </row>
+    <row r="8581" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8581" s="1"/>
+    </row>
+    <row r="8681" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8681" s="1"/>
+    </row>
+    <row r="8768" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8768" s="1"/>
+    </row>
+    <row r="8817" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B8817" s="1"/>
+    </row>
+    <row r="8925" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8925" s="1"/>
+    </row>
+    <row r="8926" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8926" s="1"/>
+    </row>
+    <row r="8927" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8927" s="1"/>
+    </row>
+    <row r="8928" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8928" s="1"/>
+    </row>
+    <row r="8929" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8929" s="1"/>
+    </row>
+    <row r="8930" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8930" s="1"/>
+      <c r="B8930" s="1"/>
+    </row>
+    <row r="8931" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8931" s="1"/>
+    </row>
+    <row r="8932" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8932" s="1"/>
+    </row>
+    <row r="8933" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8933" s="1"/>
+    </row>
+    <row r="8934" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A8934" s="1"/>
+    </row>
+    <row r="8991" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8991" s="1"/>
+    </row>
+    <row r="8992" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A8992" s="1"/>
+    </row>
+    <row r="9002" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9002" s="1"/>
+    </row>
+    <row r="9024" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9024" s="1"/>
+    </row>
+    <row r="9109" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9109" s="1"/>
+    </row>
+    <row r="9209" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9209" s="1"/>
+    </row>
+    <row r="9214" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9214" s="1"/>
+    </row>
+    <row r="9420" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9420" s="1"/>
+    </row>
+    <row r="9437" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9437" s="1"/>
+    </row>
+    <row r="9452" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9452" s="1"/>
+    </row>
+    <row r="9453" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9453" s="1"/>
+    </row>
+    <row r="9504" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9504" s="1"/>
+    </row>
+    <row r="9517" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9517" s="1"/>
+    </row>
+    <row r="9544" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9544" s="1"/>
+    </row>
+    <row r="9674" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9674" s="1"/>
+    </row>
+    <row r="9719" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9719" s="1"/>
+    </row>
+    <row r="9739" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9739" s="1"/>
+    </row>
+    <row r="9787" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9787" s="1"/>
+    </row>
+    <row r="9864" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A9864" s="1"/>
+    </row>
+    <row r="9865" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A9865" s="1"/>
+    </row>
+    <row r="9866" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A9866" s="1"/>
+    </row>
+    <row r="9872" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B9872" s="1"/>
+    </row>
+    <row r="9987" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B9987" s="1"/>
+    </row>
+    <row r="10009" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B10009" s="1"/>
+    </row>
+    <row r="10036" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B10036" s="1"/>
+    </row>
+    <row r="10109" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B10109" s="1"/>
+    </row>
+    <row r="10123" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B10123" s="1"/>
+    </row>
+    <row r="10329" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B10329" s="1"/>
+    </row>
+    <row r="10353" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10353" s="1"/>
+    </row>
+    <row r="10354" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10354" s="1"/>
+    </row>
+    <row r="10355" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10355" s="1"/>
+    </row>
+    <row r="10356" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10356" s="1"/>
+    </row>
+    <row r="10357" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10357" s="1"/>
+    </row>
+    <row r="10358" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10358" s="1"/>
+    </row>
+    <row r="10359" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10359" s="1"/>
+    </row>
+    <row r="10360" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10360" s="1"/>
+    </row>
+    <row r="10361" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10361" s="1"/>
+    </row>
+    <row r="10362" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10362" s="1"/>
+    </row>
+    <row r="10363" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10363" s="1"/>
+    </row>
+    <row r="10364" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10364" s="1"/>
+    </row>
+    <row r="10370" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B10370" s="1"/>
+    </row>
+    <row r="10509" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B10509" s="1"/>
+    </row>
+    <row r="10590" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B10590" s="1"/>
+    </row>
+    <row r="10656" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B10656" s="1"/>
+    </row>
+    <row r="10701" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10701" s="1"/>
+    </row>
+    <row r="10702" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10702" s="1"/>
+    </row>
+    <row r="10703" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10703" s="1"/>
+    </row>
+    <row r="10704" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10704" s="1"/>
+    </row>
+    <row r="10705" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10705" s="1"/>
+    </row>
+    <row r="10706" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10706" s="1"/>
+    </row>
+    <row r="10707" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10707" s="1"/>
+    </row>
+    <row r="10721" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10721" s="1"/>
+    </row>
+    <row r="10722" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10722" s="1"/>
+    </row>
+    <row r="10723" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10723" s="1"/>
+    </row>
+    <row r="10724" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10724" s="1"/>
+    </row>
+    <row r="10725" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10725" s="1"/>
+    </row>
+    <row r="10726" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A10726" s="1"/>
+    </row>
+    <row r="10822" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B10822" s="1"/>
+    </row>
+    <row r="10827" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10827" s="1"/>
+    </row>
+    <row r="10828" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10828" s="1"/>
+    </row>
+    <row r="10829" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10829" s="1"/>
+    </row>
+    <row r="10902" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B10902" s="1"/>
+    </row>
+    <row r="10996" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10996" s="1"/>
+    </row>
+    <row r="10997" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10997" s="1"/>
+    </row>
+    <row r="10998" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10998" s="1"/>
+    </row>
+    <row r="10999" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A10999" s="1"/>
+    </row>
+    <row r="11000" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11000" s="1"/>
+    </row>
+    <row r="11001" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11001" s="1"/>
+      <c r="B11001" s="1"/>
+    </row>
+    <row r="11066" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11066" s="1"/>
+    </row>
+    <row r="11111" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11111" s="1"/>
+    </row>
+    <row r="11114" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11114" s="1"/>
+    </row>
+    <row r="11251" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11251" s="1"/>
+    </row>
+    <row r="11252" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11252" s="1"/>
+    </row>
+    <row r="11253" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11253" s="1"/>
+    </row>
+    <row r="11254" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11254" s="1"/>
+    </row>
+    <row r="11281" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11281" s="1"/>
+    </row>
+    <row r="11321" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11321" s="1"/>
+    </row>
+    <row r="11325" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11325" s="1"/>
+    </row>
+    <row r="11369" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11369" s="1"/>
+    </row>
+    <row r="11377" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B11377" s="1"/>
+    </row>
+    <row r="11382" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11382" s="1"/>
+    </row>
+    <row r="11383" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11383" s="1"/>
+    </row>
+    <row r="11384" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11384" s="1"/>
+    </row>
+    <row r="11385" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11385" s="1"/>
+    </row>
+    <row r="11386" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11386" s="1"/>
+    </row>
+    <row r="11387" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11387" s="1"/>
+    </row>
+    <row r="11388" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A11388" s="1"/>
+    </row>
+    <row r="11409" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11409" s="1"/>
+    </row>
+    <row r="11410" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11410" s="1"/>
+    </row>
+    <row r="11411" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11411" s="1"/>
+    </row>
+    <row r="11438" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11438" s="1"/>
+    </row>
+    <row r="11473" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11473" s="1"/>
+    </row>
+    <row r="11484" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11484" s="1"/>
+    </row>
+    <row r="11558" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11558" s="1"/>
+    </row>
+    <row r="11559" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11559" s="1"/>
+    </row>
+    <row r="11560" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11560" s="1"/>
+    </row>
+    <row r="11561" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11561" s="1"/>
+    </row>
+    <row r="11562" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11562" s="1"/>
+    </row>
+    <row r="11563" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A11563" s="1"/>
+    </row>
+    <row r="11635" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11635" s="1"/>
+    </row>
+    <row r="11748" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11748" s="1"/>
+    </row>
+    <row r="11860" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11860" s="1"/>
+    </row>
+    <row r="11878" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11878" s="1"/>
+    </row>
+    <row r="11887" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11887" s="1"/>
+    </row>
+    <row r="11890" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11890" s="1"/>
+    </row>
+    <row r="11896" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11896" s="1"/>
+    </row>
+    <row r="11898" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11898" s="1"/>
+    </row>
+    <row r="11927" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B11927" s="1"/>
+    </row>
+    <row r="12002" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12002" s="1"/>
+    </row>
+    <row r="12003" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12003" s="1"/>
+    </row>
+    <row r="12004" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12004" s="1"/>
+    </row>
+    <row r="12118" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12118" s="1"/>
+    </row>
+    <row r="12124" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12124" s="1"/>
+    </row>
+    <row r="12129" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12129" s="1"/>
+    </row>
+    <row r="12130" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12130" s="1"/>
+    </row>
+    <row r="12131" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12131" s="1"/>
+    </row>
+    <row r="12132" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12132" s="1"/>
+    </row>
+    <row r="12133" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12133" s="1"/>
+    </row>
+    <row r="12212" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12212" s="1"/>
+    </row>
+    <row r="12222" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12222" s="1"/>
+    </row>
+    <row r="12249" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12249" s="1"/>
+    </row>
+    <row r="12306" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12306" s="1"/>
+    </row>
+    <row r="12323" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12323" s="1"/>
+    </row>
+    <row r="12360" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12360" s="1"/>
+    </row>
+    <row r="12387" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B12387" s="1"/>
+    </row>
+    <row r="12394" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12394" s="1"/>
+    </row>
+    <row r="12395" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12395" s="1"/>
+    </row>
+    <row r="12396" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12396" s="1"/>
+    </row>
+    <row r="12482" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12482" s="1"/>
+    </row>
+    <row r="12513" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12513" s="1"/>
+    </row>
+    <row r="12514" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12514" s="1"/>
+    </row>
+    <row r="12515" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12515" s="1"/>
+    </row>
+    <row r="12516" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12516" s="1"/>
+      <c r="B12516" s="1"/>
+    </row>
+    <row r="12517" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12517" s="1"/>
+    </row>
+    <row r="12518" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12518" s="1"/>
+    </row>
+    <row r="12519" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A12519" s="1"/>
+    </row>
+    <row r="12561" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12561" s="1"/>
+    </row>
+    <row r="12570" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12570" s="1"/>
+    </row>
+    <row r="12620" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12620" s="1"/>
+    </row>
+    <row r="12655" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12655" s="1"/>
+    </row>
+    <row r="12662" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12662" s="1"/>
+    </row>
+    <row r="12674" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12674" s="1"/>
+    </row>
+    <row r="12709" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12709" s="1"/>
+    </row>
+    <row r="12737" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12737" s="1"/>
+    </row>
+    <row r="12774" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12774" s="1"/>
+    </row>
+    <row r="12781" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12781" s="1"/>
+    </row>
+    <row r="12786" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12786" s="1"/>
+    </row>
+    <row r="12805" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12805" s="1"/>
+    </row>
+    <row r="12806" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12806" s="1"/>
+    </row>
+    <row r="12807" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12807" s="1"/>
+    </row>
+    <row r="12808" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12808" s="1"/>
+    </row>
+    <row r="12901" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12901" s="1"/>
+    </row>
+    <row r="12902" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12902" s="1"/>
+    </row>
+    <row r="12903" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12903" s="1"/>
+    </row>
+    <row r="12904" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12904" s="1"/>
+    </row>
+    <row r="12905" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A12905" s="1"/>
+    </row>
+    <row r="12943" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12943" s="1"/>
+    </row>
+    <row r="12984" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B12984" s="1"/>
+    </row>
+    <row r="13256" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13256" s="1"/>
+    </row>
+    <row r="13257" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13257" s="1"/>
+    </row>
+    <row r="13258" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13258" s="1"/>
+    </row>
+    <row r="13259" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13259" s="1"/>
+    </row>
+    <row r="13335" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13335" s="1"/>
+    </row>
+    <row r="13336" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13336" s="1"/>
+    </row>
+    <row r="13337" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13337" s="1"/>
+    </row>
+    <row r="13338" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13338" s="1"/>
+    </row>
+    <row r="13339" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13339" s="1"/>
+    </row>
+    <row r="13340" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13340" s="1"/>
+    </row>
+    <row r="13433" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13433" s="1"/>
+    </row>
+    <row r="13476" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13476" s="1"/>
+    </row>
+    <row r="13589" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13589" s="1"/>
+    </row>
+    <row r="13597" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13597" s="1"/>
+    </row>
+    <row r="13677" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13677" s="1"/>
+    </row>
+    <row r="13704" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13704" s="1"/>
+    </row>
+    <row r="13747" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13747" s="1"/>
+    </row>
+    <row r="13776" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13776" s="1"/>
+    </row>
+    <row r="13792" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13792" s="1"/>
+    </row>
+    <row r="13812" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13812" s="1"/>
+    </row>
+    <row r="13836" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13836" s="1"/>
+    </row>
+    <row r="13837" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13837" s="1"/>
+    </row>
+    <row r="13838" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13838" s="1"/>
+    </row>
+    <row r="13849" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13849" s="1"/>
+    </row>
+    <row r="13887" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13887" s="1"/>
+    </row>
+    <row r="13888" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13888" s="1"/>
+    </row>
+    <row r="13889" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13889" s="1"/>
+    </row>
+    <row r="13890" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13890" s="1"/>
+    </row>
+    <row r="13891" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13891" s="1"/>
+    </row>
+    <row r="13892" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13892" s="1"/>
+    </row>
+    <row r="13901" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B13901" s="1"/>
+    </row>
+    <row r="13962" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B13962" s="1"/>
+    </row>
+    <row r="13982" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B13982" s="1"/>
+    </row>
+    <row r="13983" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13983" s="1"/>
+    </row>
+    <row r="13984" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A13984" s="1"/>
+    </row>
+    <row r="13985" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13985" s="1"/>
+    </row>
+    <row r="13986" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A13986" s="1"/>
+    </row>
+    <row r="14007" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14007" s="1"/>
+    </row>
+    <row r="14017" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14017" s="1"/>
+    </row>
+    <row r="14058" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14058" s="1"/>
+    </row>
+    <row r="14072" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14072" s="1"/>
+    </row>
+    <row r="14073" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14073" s="1"/>
+    </row>
+    <row r="14074" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14074" s="1"/>
+    </row>
+    <row r="14075" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14075" s="1"/>
+    </row>
+    <row r="14201" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14201" s="1"/>
+    </row>
+    <row r="14222" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14222" s="1"/>
+    </row>
+    <row r="14223" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14223" s="1"/>
+    </row>
+    <row r="14224" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14224" s="1"/>
+    </row>
+    <row r="14243" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14243" s="1"/>
+    </row>
+    <row r="14279" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14279" s="1"/>
+    </row>
+    <row r="14440" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14440" s="1"/>
+    </row>
+    <row r="14448" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14448" s="1"/>
+    </row>
+    <row r="14462" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14462" s="1"/>
+    </row>
+    <row r="14463" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14463" s="1"/>
+    </row>
+    <row r="14464" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14464" s="1"/>
+    </row>
+    <row r="14465" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14465" s="1"/>
+    </row>
+    <row r="14466" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14466" s="1"/>
+    </row>
+    <row r="14467" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14467" s="1"/>
+    </row>
+    <row r="14471" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B14471" s="1"/>
+    </row>
+    <row r="14475" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14475" s="1"/>
+    </row>
+    <row r="14476" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14476" s="1"/>
+    </row>
+    <row r="14477" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14477" s="1"/>
+    </row>
+    <row r="14478" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14478" s="1"/>
+    </row>
+    <row r="14479" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14479" s="1"/>
+    </row>
+    <row r="14480" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14480" s="1"/>
+      <c r="B14480" s="1"/>
+    </row>
+    <row r="14481" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14481" s="1"/>
+    </row>
+    <row r="14482" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A14482" s="1"/>
+      <c r="B14482" s="1"/>
+    </row>
+    <row r="14534" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14534" s="1"/>
+    </row>
+    <row r="14580" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14580" s="1"/>
+    </row>
+    <row r="14581" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14581" s="1"/>
+    </row>
+    <row r="14630" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14630" s="1"/>
+    </row>
+    <row r="14656" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14656" s="1"/>
+    </row>
+    <row r="14672" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14672" s="1"/>
+    </row>
+    <row r="14764" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14764" s="1"/>
+    </row>
+    <row r="14765" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14765" s="1"/>
+    </row>
+    <row r="14766" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14766" s="1"/>
+    </row>
+    <row r="14767" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14767" s="1"/>
+    </row>
+    <row r="14768" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A14768" s="1"/>
+    </row>
+    <row r="14774" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14774" s="1"/>
+    </row>
+    <row r="14853" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14853" s="1"/>
+    </row>
+    <row r="14879" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14879" s="1"/>
+    </row>
+    <row r="14902" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14902" s="1"/>
+    </row>
+    <row r="14923" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B14923" s="1"/>
+    </row>
+    <row r="15002" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15002" s="1"/>
+    </row>
+    <row r="15049" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15049" s="1"/>
+    </row>
+    <row r="15110" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15110" s="1"/>
+    </row>
+    <row r="15115" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15115" s="1"/>
+    </row>
+    <row r="15164" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15164" s="1"/>
+    </row>
+    <row r="15241" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15241" s="1"/>
+    </row>
+    <row r="15257" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15257" s="1"/>
+    </row>
+    <row r="15258" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15258" s="1"/>
+    </row>
+    <row r="15288" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B15288" s="1"/>
+    </row>
+    <row r="15291" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15291" s="1"/>
+    </row>
+    <row r="15292" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15292" s="1"/>
+    </row>
+    <row r="15293" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15293" s="1"/>
+    </row>
+    <row r="15294" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15294" s="1"/>
+    </row>
+    <row r="15295" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15295" s="1"/>
+    </row>
+    <row r="15304" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15304" s="1"/>
+    </row>
+    <row r="15317" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15317" s="1"/>
+    </row>
+    <row r="15425" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15425" s="1"/>
+    </row>
+    <row r="15426" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15426" s="1"/>
+    </row>
+    <row r="15427" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15427" s="1"/>
+    </row>
+    <row r="15557" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15557" s="1"/>
+    </row>
+    <row r="15573" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15573" s="1"/>
+    </row>
+    <row r="15574" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15574" s="1"/>
+    </row>
+    <row r="15575" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15575" s="1"/>
+    </row>
+    <row r="15576" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15576" s="1"/>
+    </row>
+    <row r="15649" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15649" s="1"/>
+    </row>
+    <row r="15711" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15711" s="1"/>
+    </row>
+    <row r="15712" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15712" s="1"/>
+    </row>
+    <row r="15713" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15713" s="1"/>
+    </row>
+    <row r="15725" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B15725" s="1"/>
+    </row>
+    <row r="15745" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15745" s="1"/>
+    </row>
+    <row r="15746" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15746" s="1"/>
+    </row>
+    <row r="15747" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15747" s="1"/>
+    </row>
+    <row r="15748" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15748" s="1"/>
+    </row>
+    <row r="15749" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15749" s="1"/>
+    </row>
+    <row r="15822" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15822" s="1"/>
+    </row>
+    <row r="15823" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15823" s="1"/>
+    </row>
+    <row r="15824" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15824" s="1"/>
+    </row>
+    <row r="15825" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A15825" s="1"/>
+    </row>
+    <row r="15878" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15878" s="1"/>
+      <c r="B15878" s="1"/>
+    </row>
+    <row r="15879" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15879" s="1"/>
+    </row>
+    <row r="15880" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15880" s="1"/>
+    </row>
+    <row r="15881" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A15881" s="1"/>
+    </row>
+    <row r="15883" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B15883" s="1"/>
+    </row>
+    <row r="15953" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15953" s="1"/>
+    </row>
+    <row r="15981" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15981" s="1"/>
+    </row>
+    <row r="15993" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B15993" s="1"/>
+    </row>
+    <row r="16010" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16010" s="1"/>
+    </row>
+    <row r="16117" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16117" s="1"/>
+    </row>
+    <row r="16118" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16118" s="1"/>
+    </row>
+    <row r="16119" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16119" s="1"/>
+    </row>
+    <row r="16120" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16120" s="1"/>
+    </row>
+    <row r="16121" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16121" s="1"/>
+    </row>
+    <row r="16122" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16122" s="1"/>
+    </row>
+    <row r="16123" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16123" s="1"/>
+    </row>
+    <row r="16199" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16199" s="1"/>
+    </row>
+    <row r="16200" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16200" s="1"/>
+    </row>
+    <row r="16201" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16201" s="1"/>
+    </row>
+    <row r="16202" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16202" s="1"/>
+    </row>
+    <row r="16203" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16203" s="1"/>
+    </row>
+    <row r="16204" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16204" s="1"/>
+    </row>
+    <row r="16286" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16286" s="1"/>
+    </row>
+    <row r="16287" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16287" s="1"/>
+    </row>
+    <row r="16288" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16288" s="1"/>
+    </row>
+    <row r="16289" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16289" s="1"/>
+    </row>
+    <row r="16290" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16290" s="1"/>
+    </row>
+    <row r="16291" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16291" s="1"/>
+    </row>
+    <row r="16317" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16317" s="1"/>
+    </row>
+    <row r="16379" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16379" s="1"/>
+    </row>
+    <row r="16449" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16449" s="1"/>
+    </row>
+    <row r="16465" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16465" s="1"/>
+    </row>
+    <row r="16466" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16466" s="1"/>
+    </row>
+    <row r="16467" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16467" s="1"/>
+    </row>
+    <row r="16468" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16468" s="1"/>
+    </row>
+    <row r="16469" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A16469" s="1"/>
+    </row>
+    <row r="16487" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16487" s="1"/>
+    </row>
+    <row r="16594" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16594" s="1"/>
+    </row>
+    <row r="16608" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16608" s="1"/>
+    </row>
+    <row r="16710" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B16710" s="1"/>
+    </row>
+    <row r="16711" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A16711" s="1"/>
+    </row>
+    <row r="16712" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A16712" s="1"/>
+    </row>
+    <row r="16713" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A16713" s="1"/>
+    </row>
+    <row r="16714" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A16714" s="1"/>
+    </row>
+    <row r="16718" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B16718" s="1"/>
+    </row>
+    <row r="16753" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16753" s="1"/>
+    </row>
+    <row r="16904" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16904" s="1"/>
+    </row>
+    <row r="16909" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16909" s="1"/>
+    </row>
+    <row r="16940" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16940" s="1"/>
+    </row>
+    <row r="16949" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16949" s="1"/>
+    </row>
+    <row r="16964" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B16964" s="1"/>
+    </row>
+    <row r="17007" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17007" s="1"/>
+    </row>
+    <row r="17227" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17227" s="1"/>
+    </row>
+    <row r="17245" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17245" s="1"/>
+    </row>
+    <row r="17267" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17267" s="1"/>
+    </row>
+    <row r="17330" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B17330" s="1"/>
+    </row>
+    <row r="17341" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A17341" s="1"/>
+    </row>
+    <row r="17342" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A17342" s="1"/>
+    </row>
+    <row r="17354" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17354" s="1"/>
+    </row>
+    <row r="17358" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17358" s="1"/>
+    </row>
+    <row r="17380" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17380" s="1"/>
+    </row>
+    <row r="17464" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17464" s="1"/>
+    </row>
+    <row r="17484" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17484" s="1"/>
+    </row>
+    <row r="17533" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17533" s="1"/>
+    </row>
+    <row r="17625" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A17625" s="1"/>
+    </row>
+    <row r="17626" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A17626" s="1"/>
+    </row>
+    <row r="17627" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A17627" s="1"/>
+    </row>
+    <row r="17628" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A17628" s="1"/>
+    </row>
+    <row r="17629" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A17629" s="1"/>
+    </row>
+    <row r="17630" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A17630" s="1"/>
+    </row>
+    <row r="17647" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17647" s="1"/>
+    </row>
+    <row r="17714" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17714" s="1"/>
+    </row>
+    <row r="17729" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17729" s="1"/>
+    </row>
+    <row r="17739" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17739" s="1"/>
+    </row>
+    <row r="17792" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17792" s="1"/>
+    </row>
+    <row r="17822" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17822" s="1"/>
+    </row>
+    <row r="17881" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17881" s="1"/>
+    </row>
+    <row r="17902" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17902" s="1"/>
+    </row>
+    <row r="17911" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B17911" s="1"/>
+    </row>
+    <row r="18137" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18137" s="1"/>
+    </row>
+    <row r="18138" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18138" s="1"/>
+    </row>
+    <row r="18193" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18193" s="1"/>
+    </row>
+    <row r="18194" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18194" s="1"/>
+    </row>
+    <row r="18195" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18195" s="1"/>
+    </row>
+    <row r="18196" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18196" s="1"/>
+    </row>
+    <row r="18197" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18197" s="1"/>
+    </row>
+    <row r="18223" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18223" s="1"/>
+    </row>
+    <row r="18250" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18250" s="1"/>
+    </row>
+    <row r="18251" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18251" s="1"/>
+    </row>
+    <row r="18252" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18252" s="1"/>
+    </row>
+    <row r="18554" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18554" s="1"/>
+    </row>
+    <row r="18637" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B18637" s="1"/>
+    </row>
+    <row r="18639" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18639" s="1"/>
+    </row>
+    <row r="18640" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18640" s="1"/>
+    </row>
+    <row r="18641" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18641" s="1"/>
+    </row>
+    <row r="18642" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18642" s="1"/>
+    </row>
+    <row r="18643" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18643" s="1"/>
+    </row>
+    <row r="18644" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18644" s="1"/>
+    </row>
+    <row r="18655" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B18655" s="1"/>
+    </row>
+    <row r="18688" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18688" s="1"/>
+    </row>
+    <row r="18712" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18712" s="1"/>
+    </row>
+    <row r="18721" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18721" s="1"/>
+    </row>
+    <row r="18727" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18727" s="1"/>
+    </row>
+    <row r="18739" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18739" s="1"/>
+    </row>
+    <row r="18757" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B18757" s="1"/>
+    </row>
+    <row r="18782" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18782" s="1"/>
+    </row>
+    <row r="18783" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18783" s="1"/>
+    </row>
+    <row r="18784" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18784" s="1"/>
+    </row>
+    <row r="18785" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18785" s="1"/>
+    </row>
+    <row r="18786" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18786" s="1"/>
+    </row>
+    <row r="18800" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B18800" s="1"/>
+    </row>
+    <row r="18908" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18908" s="1"/>
+    </row>
+    <row r="18909" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18909" s="1"/>
+    </row>
+    <row r="18910" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18910" s="1"/>
+    </row>
+    <row r="18911" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18911" s="1"/>
+    </row>
+    <row r="18958" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18958" s="1"/>
+    </row>
+    <row r="18959" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18959" s="1"/>
+    </row>
+    <row r="18960" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18960" s="1"/>
+    </row>
+    <row r="18961" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A18961" s="1"/>
+    </row>
+    <row r="19006" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19006" s="1"/>
+    </row>
+    <row r="19123" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19123" s="1"/>
+    </row>
+    <row r="19134" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19134" s="1"/>
+    </row>
+    <row r="19170" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19170" s="1"/>
+    </row>
+    <row r="19171" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19171" s="1"/>
+    </row>
+    <row r="19172" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19172" s="1"/>
+    </row>
+    <row r="19173" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19173" s="1"/>
+    </row>
+    <row r="19194" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19194" s="1"/>
+    </row>
+    <row r="19204" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19204" s="1"/>
+    </row>
+    <row r="19205" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19205" s="1"/>
+    </row>
+    <row r="19206" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19206" s="1"/>
+    </row>
+    <row r="19261" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19261" s="1"/>
+    </row>
+    <row r="19494" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19494" s="1"/>
+    </row>
+    <row r="19497" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19497" s="1"/>
+    </row>
+    <row r="19566" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19566" s="1"/>
+    </row>
+    <row r="19602" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19602" s="1"/>
+    </row>
+    <row r="19634" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19634" s="1"/>
+    </row>
+    <row r="19635" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19635" s="1"/>
+    </row>
+    <row r="19636" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19636" s="1"/>
+    </row>
+    <row r="19637" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19637" s="1"/>
+    </row>
+    <row r="19638" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19638" s="1"/>
+    </row>
+    <row r="19639" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19639" s="1"/>
+    </row>
+    <row r="19649" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B19649" s="1"/>
+    </row>
+    <row r="19658" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19658" s="1"/>
+    </row>
+    <row r="19659" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19659" s="1"/>
+    </row>
+    <row r="19660" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19660" s="1"/>
+    </row>
+    <row r="19661" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19661" s="1"/>
+    </row>
+    <row r="19662" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19662" s="1"/>
+    </row>
+    <row r="19700" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19700" s="1"/>
+    </row>
+    <row r="19723" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19723" s="1"/>
+    </row>
+    <row r="19724" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19724" s="1"/>
+    </row>
+    <row r="19752" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19752" s="1"/>
+    </row>
+    <row r="19755" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19755" s="1"/>
+    </row>
+    <row r="19783" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19783" s="1"/>
+    </row>
+    <row r="19806" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19806" s="1"/>
+    </row>
+    <row r="19853" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19853" s="1"/>
+    </row>
+    <row r="19916" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19916" s="1"/>
+    </row>
+    <row r="19949" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B19949" s="1"/>
+    </row>
+    <row r="20031" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20031" s="1"/>
+    </row>
+    <row r="20032" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20032" s="1"/>
+    </row>
+    <row r="20033" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20033" s="1"/>
+    </row>
+    <row r="20034" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20034" s="1"/>
+    </row>
+    <row r="20081" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20081" s="1"/>
+    </row>
+    <row r="20172" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20172" s="1"/>
+    </row>
+    <row r="20173" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20173" s="1"/>
+    </row>
+    <row r="20174" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20174" s="1"/>
+    </row>
+    <row r="20175" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20175" s="1"/>
+    </row>
+    <row r="20176" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20176" s="1"/>
+    </row>
+    <row r="20205" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20205" s="1"/>
+    </row>
+    <row r="20254" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20254" s="1"/>
+    </row>
+    <row r="20271" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20271" s="1"/>
+    </row>
+    <row r="20392" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20392" s="1"/>
+    </row>
+    <row r="20407" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20407" s="1"/>
+    </row>
+    <row r="20413" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20413" s="1"/>
+    </row>
+    <row r="20535" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20535" s="1"/>
+    </row>
+    <row r="20580" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20580" s="1"/>
+    </row>
+    <row r="20852" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20852" s="1"/>
+    </row>
+    <row r="20858" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20858" s="1"/>
+    </row>
+    <row r="20927" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20927" s="1"/>
+    </row>
+    <row r="20928" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A20928" s="1"/>
+    </row>
+    <row r="20929" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A20929" s="1"/>
+    </row>
+    <row r="20930" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A20930" s="1"/>
+    </row>
+    <row r="20931" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A20931" s="1"/>
+    </row>
+    <row r="20942" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B20942" s="1"/>
+    </row>
+    <row r="20959" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20959" s="1"/>
+    </row>
+    <row r="20971" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20971" s="1"/>
+    </row>
+    <row r="20976" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B20976" s="1"/>
+    </row>
+    <row r="21042" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21042" s="1"/>
+    </row>
+    <row r="21047" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21047" s="1"/>
+    </row>
+    <row r="21059" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21059" s="1"/>
+    </row>
+    <row r="21086" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21086" s="1"/>
+    </row>
+    <row r="21163" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21163" s="1"/>
+    </row>
+    <row r="21168" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21168" s="1"/>
+    </row>
+    <row r="21189" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21189" s="1"/>
+    </row>
+    <row r="21410" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21410" s="1"/>
+    </row>
+    <row r="21435" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21435" s="1"/>
+    </row>
+    <row r="21461" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A21461" s="1"/>
+    </row>
+    <row r="21462" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A21462" s="1"/>
+    </row>
+    <row r="21463" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A21463" s="1"/>
+    </row>
+    <row r="21464" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A21464" s="1"/>
+    </row>
+    <row r="21465" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A21465" s="1"/>
+    </row>
+    <row r="21466" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A21466" s="1"/>
+    </row>
+    <row r="21513" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A21513" s="1"/>
+    </row>
+    <row r="21514" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A21514" s="1"/>
+    </row>
+    <row r="21515" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A21515" s="1"/>
+    </row>
+    <row r="21606" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21606" s="1"/>
+    </row>
+    <row r="21798" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21798" s="1"/>
+    </row>
+    <row r="21805" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21805" s="1"/>
+    </row>
+    <row r="21893" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21893" s="1"/>
+    </row>
+    <row r="21945" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21945" s="1"/>
+    </row>
+    <row r="21963" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B21963" s="1"/>
+    </row>
+    <row r="22007" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22007" s="1"/>
+    </row>
+    <row r="22032" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22032" s="1"/>
+    </row>
+    <row r="22056" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22056" s="1"/>
+    </row>
+    <row r="22103" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22103" s="1"/>
+    </row>
+    <row r="22113" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22113" s="1"/>
+    </row>
+    <row r="22116" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22116" s="1"/>
+    </row>
+    <row r="22211" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22211" s="1"/>
+    </row>
+    <row r="22213" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22213" s="1"/>
+    </row>
+    <row r="22247" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22247" s="1"/>
+    </row>
+    <row r="22261" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22261" s="1"/>
+    </row>
+    <row r="22272" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22272" s="1"/>
+    </row>
+    <row r="22334" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22334" s="1"/>
+    </row>
+    <row r="22340" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22340" s="1"/>
+    </row>
+    <row r="22398" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22398" s="1"/>
+    </row>
+    <row r="22411" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22411" s="1"/>
+    </row>
+    <row r="22432" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22432" s="1"/>
+    </row>
+    <row r="22439" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22439" s="1"/>
+    </row>
+    <row r="22457" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22457" s="1"/>
+    </row>
+    <row r="22540" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22540" s="1"/>
+    </row>
+    <row r="22625" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22625" s="1"/>
+    </row>
+    <row r="22626" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22626" s="1"/>
+    </row>
+    <row r="22627" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22627" s="1"/>
+    </row>
+    <row r="22628" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22628" s="1"/>
+    </row>
+    <row r="22629" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22629" s="1"/>
+    </row>
+    <row r="22652" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22652" s="1"/>
+    </row>
+    <row r="22660" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22660" s="1"/>
+    </row>
+    <row r="22661" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22661" s="1"/>
+    </row>
+    <row r="22662" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22662" s="1"/>
+    </row>
+    <row r="22663" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22663" s="1"/>
+    </row>
+    <row r="22664" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22664" s="1"/>
+    </row>
+    <row r="22665" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22665" s="1"/>
+    </row>
+    <row r="22730" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22730" s="1"/>
+    </row>
+    <row r="22754" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22754" s="1"/>
+    </row>
+    <row r="22773" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22773" s="1"/>
+    </row>
+    <row r="22774" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A22774" s="1"/>
+    </row>
+    <row r="22811" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22811" s="1"/>
+    </row>
+    <row r="22963" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22963" s="1"/>
+    </row>
+    <row r="22966" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B22966" s="1"/>
+    </row>
+    <row r="23069" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23069" s="1"/>
+    </row>
+    <row r="23125" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23125" s="1"/>
+    </row>
+    <row r="23152" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23152" s="1"/>
+    </row>
+    <row r="23163" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23163" s="1"/>
+    </row>
+    <row r="23218" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23218" s="1"/>
+    </row>
+    <row r="23310" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23310" s="1"/>
+    </row>
+    <row r="23311" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23311" s="1"/>
+    </row>
+    <row r="23312" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23312" s="1"/>
+    </row>
+    <row r="23313" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23313" s="1"/>
+    </row>
+    <row r="23314" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23314" s="1"/>
+    </row>
+    <row r="23315" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23315" s="1"/>
+    </row>
+    <row r="23316" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23316" s="1"/>
+    </row>
+    <row r="23325" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B23325" s="1"/>
+    </row>
+    <row r="23329" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23329" s="1"/>
+    </row>
+    <row r="23490" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23490" s="1"/>
+    </row>
+    <row r="23507" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23507" s="1"/>
+    </row>
+    <row r="23508" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23508" s="1"/>
+    </row>
+    <row r="23509" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23509" s="1"/>
+    </row>
+    <row r="23510" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23510" s="1"/>
+    </row>
+    <row r="23511" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23511" s="1"/>
+    </row>
+    <row r="23512" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23512" s="1"/>
+    </row>
+    <row r="23524" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23524" s="1"/>
+    </row>
+    <row r="23525" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23525" s="1"/>
+    </row>
+    <row r="23526" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23526" s="1"/>
+    </row>
+    <row r="23527" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23527" s="1"/>
+    </row>
+    <row r="23528" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23528" s="1"/>
+    </row>
+    <row r="23529" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23529" s="1"/>
+    </row>
+    <row r="23537" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23537" s="1"/>
+    </row>
+    <row r="23562" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23562" s="1"/>
+    </row>
+    <row r="23563" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23563" s="1"/>
+    </row>
+    <row r="23617" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23617" s="1"/>
+    </row>
+    <row r="23634" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23634" s="1"/>
+    </row>
+    <row r="23635" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23635" s="1"/>
+    </row>
+    <row r="23636" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23636" s="1"/>
+    </row>
+    <row r="23637" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23637" s="1"/>
+    </row>
+    <row r="23651" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23651" s="1"/>
+    </row>
+    <row r="23652" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23652" s="1"/>
+      <c r="B23652" s="1"/>
+    </row>
+    <row r="23789" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23789" s="1"/>
+    </row>
+    <row r="23796" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23796" s="1"/>
+    </row>
+    <row r="23797" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23797" s="1"/>
+    </row>
+    <row r="23798" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23798" s="1"/>
+    </row>
+    <row r="23799" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A23799" s="1"/>
+    </row>
+    <row r="23851" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23851" s="1"/>
+    </row>
+    <row r="23865" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23865" s="1"/>
+    </row>
+    <row r="23987" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23987" s="1"/>
+    </row>
+    <row r="23988" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B23988" s="1"/>
+    </row>
+    <row r="24005" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24005" s="1"/>
+    </row>
+    <row r="24038" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24038" s="1"/>
+    </row>
+    <row r="24103" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24103" s="1"/>
+    </row>
+    <row r="24218" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24218" s="1"/>
+    </row>
+    <row r="24417" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24417" s="1"/>
+    </row>
+    <row r="24456" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24456" s="1"/>
+    </row>
+    <row r="24516" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24516" s="1"/>
+    </row>
+    <row r="24537" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24537" s="1"/>
+    </row>
+    <row r="24540" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24540" s="1"/>
+    </row>
+    <row r="24559" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24559" s="1"/>
+    </row>
+    <row r="24610" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24610" s="1"/>
+    </row>
+    <row r="24619" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24619" s="1"/>
+    </row>
+    <row r="24641" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24641" s="1"/>
+    </row>
+    <row r="24951" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B24951" s="1"/>
+    </row>
+    <row r="24975" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B24975" s="1"/>
+    </row>
+    <row r="24976" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24976" s="1"/>
+    </row>
+    <row r="24977" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24977" s="1"/>
+    </row>
+    <row r="24978" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24978" s="1"/>
+    </row>
+    <row r="24979" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24979" s="1"/>
+    </row>
+    <row r="24980" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24980" s="1"/>
+    </row>
+    <row r="24981" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24981" s="1"/>
+    </row>
+    <row r="24982" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A24982" s="1"/>
+    </row>
+    <row r="24983" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B24983" s="1"/>
+    </row>
+    <row r="25033" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25033" s="1"/>
+    </row>
+    <row r="25073" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25073" s="1"/>
+    </row>
+    <row r="25074" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25074" s="1"/>
+    </row>
+    <row r="25075" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25075" s="1"/>
+    </row>
+    <row r="25076" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25076" s="1"/>
+    </row>
+    <row r="25077" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25077" s="1"/>
+    </row>
+    <row r="25190" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25190" s="1"/>
+    </row>
+    <row r="25227" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25227" s="1"/>
+    </row>
+    <row r="25305" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25305" s="1"/>
+    </row>
+    <row r="25310" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25310" s="1"/>
+    </row>
+    <row r="25400" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25400" s="1"/>
+    </row>
+    <row r="25468" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25468" s="1"/>
+    </row>
+    <row r="25527" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25527" s="1"/>
+    </row>
+    <row r="25596" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25596" s="1"/>
+    </row>
+    <row r="25597" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25597" s="1"/>
+    </row>
+    <row r="25600" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B25600" s="1"/>
+    </row>
+    <row r="25604" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25604" s="1"/>
+    </row>
+    <row r="25605" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25605" s="1"/>
+    </row>
+    <row r="25606" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25606" s="1"/>
+    </row>
+    <row r="25607" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25607" s="1"/>
+    </row>
+    <row r="25670" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25670" s="1"/>
+    </row>
+    <row r="25696" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25696" s="1"/>
+    </row>
+    <row r="25715" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25715" s="1"/>
+    </row>
+    <row r="25826" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25826" s="1"/>
+    </row>
+    <row r="25830" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25830" s="1"/>
+    </row>
+    <row r="25883" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25883" s="1"/>
+    </row>
+    <row r="25884" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25884" s="1"/>
+    </row>
+    <row r="25885" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25885" s="1"/>
+    </row>
+    <row r="25886" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25886" s="1"/>
+    </row>
+    <row r="25887" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A25887" s="1"/>
+    </row>
+    <row r="25900" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25900" s="1"/>
+    </row>
+    <row r="25976" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25976" s="1"/>
+    </row>
+    <row r="25987" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B25987" s="1"/>
+    </row>
+    <row r="26103" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26103" s="1"/>
+    </row>
+    <row r="26104" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26104" s="1"/>
+    </row>
+    <row r="26105" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26105" s="1"/>
+    </row>
+    <row r="26106" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26106" s="1"/>
+    </row>
+    <row r="26107" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26107" s="1"/>
+    </row>
+    <row r="26137" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26137" s="1"/>
+    </row>
+    <row r="26177" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26177" s="1"/>
+    </row>
+    <row r="26188" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26188" s="1"/>
+    </row>
+    <row r="26194" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26194" s="1"/>
+    </row>
+    <row r="26216" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26216" s="1"/>
+    </row>
+    <row r="26247" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26247" s="1"/>
+    </row>
+    <row r="26285" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26285" s="1"/>
+    </row>
+    <row r="26289" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26289" s="1"/>
+    </row>
+    <row r="26299" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26299" s="1"/>
+    </row>
+    <row r="26326" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26326" s="1"/>
+    </row>
+    <row r="26327" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26327" s="1"/>
+    </row>
+    <row r="26328" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26328" s="1"/>
+      <c r="B26328" s="1"/>
+    </row>
+    <row r="26329" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A26329" s="1"/>
+    </row>
+    <row r="26337" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26337" s="1"/>
+    </row>
+    <row r="26354" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26354" s="1"/>
+    </row>
+    <row r="26365" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26365" s="1"/>
+    </row>
+    <row r="26400" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26400" s="1"/>
+    </row>
+    <row r="26479" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26479" s="1"/>
+    </row>
+    <row r="26499" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26499" s="1"/>
+    </row>
+    <row r="26500" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26500" s="1"/>
+    </row>
+    <row r="26501" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26501" s="1"/>
+    </row>
+    <row r="26502" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26502" s="1"/>
+    </row>
+    <row r="26503" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26503" s="1"/>
+    </row>
+    <row r="26504" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26504" s="1"/>
+    </row>
+    <row r="26505" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26505" s="1"/>
+    </row>
+    <row r="26506" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26506" s="1"/>
+    </row>
+    <row r="26507" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26507" s="1"/>
+    </row>
+    <row r="26531" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26531" s="1"/>
+    </row>
+    <row r="26538" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26538" s="1"/>
+    </row>
+    <row r="26619" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26619" s="1"/>
+    </row>
+    <row r="26709" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26709" s="1"/>
+    </row>
+    <row r="26739" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26739" s="1"/>
+    </row>
+    <row r="26761" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26761" s="1"/>
+    </row>
+    <row r="26804" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26804" s="1"/>
+    </row>
+    <row r="26860" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26860" s="1"/>
+    </row>
+    <row r="26861" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26861" s="1"/>
+    </row>
+    <row r="26862" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26862" s="1"/>
+    </row>
+    <row r="26863" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26863" s="1"/>
+    </row>
+    <row r="26864" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A26864" s="1"/>
+    </row>
+    <row r="26893" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26893" s="1"/>
+    </row>
+    <row r="26963" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B26963" s="1"/>
+    </row>
+    <row r="27000" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27000" s="1"/>
+    </row>
+    <row r="27103" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A27103" s="1"/>
+    </row>
+    <row r="27104" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A27104" s="1"/>
+      <c r="B27104" s="1"/>
+    </row>
+    <row r="27105" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A27105" s="1"/>
+    </row>
+    <row r="27106" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A27106" s="1"/>
+    </row>
+    <row r="27107" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A27107" s="1"/>
+    </row>
+    <row r="27108" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A27108" s="1"/>
+    </row>
+    <row r="27150" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27150" s="1"/>
+    </row>
+    <row r="27191" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27191" s="1"/>
+    </row>
+    <row r="27196" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27196" s="1"/>
+    </row>
+    <row r="27240" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27240" s="1"/>
+    </row>
+    <row r="27301" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27301" s="1"/>
+    </row>
+    <row r="27334" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27334" s="1"/>
+    </row>
+    <row r="27417" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27417" s="1"/>
+    </row>
+    <row r="27432" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27432" s="1"/>
+    </row>
+    <row r="27515" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27515" s="1"/>
+    </row>
+    <row r="27530" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A27530" s="1"/>
+    </row>
+    <row r="27553" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27553" s="1"/>
+    </row>
+    <row r="27581" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27581" s="1"/>
+    </row>
+    <row r="27758" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27758" s="1"/>
+    </row>
+    <row r="27782" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27782" s="1"/>
+    </row>
+    <row r="27842" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27842" s="1"/>
+    </row>
+    <row r="27923" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27923" s="1"/>
+    </row>
+    <row r="27939" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27939" s="1"/>
+    </row>
+    <row r="27985" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B27985" s="1"/>
+    </row>
+    <row r="28068" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28068" s="1"/>
+    </row>
+    <row r="28113" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28113" s="1"/>
+    </row>
+    <row r="28285" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B28285" s="1"/>
+    </row>
+    <row r="28286" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28286" s="1"/>
+    </row>
+    <row r="28287" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28287" s="1"/>
+    </row>
+    <row r="28340" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28340" s="1"/>
+    </row>
+    <row r="28370" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28370" s="1"/>
+    </row>
+    <row r="28402" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28402" s="1"/>
+    </row>
+    <row r="28431" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28431" s="1"/>
+    </row>
+    <row r="28450" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28450" s="1"/>
+    </row>
+    <row r="28489" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28489" s="1"/>
+    </row>
+    <row r="28548" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28548" s="1"/>
+    </row>
+    <row r="28608" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A28608" s="1"/>
+    </row>
+    <row r="28609" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A28609" s="1"/>
+    </row>
+    <row r="28610" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A28610" s="1"/>
+    </row>
+    <row r="28611" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A28611" s="1"/>
+    </row>
+    <row r="28635" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A28635" s="1"/>
+    </row>
+    <row r="28636" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A28636" s="1"/>
+    </row>
+    <row r="28637" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A28637" s="1"/>
+    </row>
+    <row r="28638" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A28638" s="1"/>
+    </row>
+    <row r="28643" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28643" s="1"/>
+    </row>
+    <row r="28653" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28653" s="1"/>
+    </row>
+    <row r="28733" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28733" s="1"/>
+    </row>
+    <row r="28747" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28747" s="1"/>
+    </row>
+    <row r="28766" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28766" s="1"/>
+    </row>
+    <row r="28807" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28807" s="1"/>
+    </row>
+    <row r="28810" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28810" s="1"/>
+    </row>
+    <row r="28889" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28889" s="1"/>
+    </row>
+    <row r="28927" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B28927" s="1"/>
+    </row>
+    <row r="28984" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28984" s="1"/>
+    </row>
+    <row r="28992" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B28992" s="1"/>
+    </row>
+    <row r="29017" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29017" s="1"/>
+    </row>
+    <row r="29018" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29018" s="1"/>
+    </row>
+    <row r="29019" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29019" s="1"/>
+    </row>
+    <row r="29020" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29020" s="1"/>
+    </row>
+    <row r="29021" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29021" s="1"/>
+    </row>
+    <row r="29022" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29022" s="1"/>
+    </row>
+    <row r="29023" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29023" s="1"/>
+    </row>
+    <row r="29024" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29024" s="1"/>
+    </row>
+    <row r="29039" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29039" s="1"/>
+    </row>
+    <row r="29106" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29106" s="1"/>
+    </row>
+    <row r="29154" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29154" s="1"/>
+    </row>
+    <row r="29160" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29160" s="1"/>
+    </row>
+    <row r="29245" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29245" s="1"/>
+    </row>
+    <row r="29290" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29290" s="1"/>
+    </row>
+    <row r="29335" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29335" s="1"/>
+    </row>
+    <row r="29336" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29336" s="1"/>
+      <c r="B29336" s="1"/>
+    </row>
+    <row r="29337" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29337" s="1"/>
+    </row>
+    <row r="29338" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29338" s="1"/>
+    </row>
+    <row r="29339" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29339" s="1"/>
+    </row>
+    <row r="29340" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29340" s="1"/>
+    </row>
+    <row r="29341" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29341" s="1"/>
+    </row>
+    <row r="29342" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29342" s="1"/>
+    </row>
+    <row r="29395" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29395" s="1"/>
+    </row>
+    <row r="29401" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29401" s="1"/>
+    </row>
+    <row r="29416" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29416" s="1"/>
+    </row>
+    <row r="29449" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29449" s="1"/>
+    </row>
+    <row r="29475" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29475" s="1"/>
+    </row>
+    <row r="29512" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29512" s="1"/>
+    </row>
+    <row r="29534" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29534" s="1"/>
+    </row>
+    <row r="29601" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29601" s="1"/>
+    </row>
+    <row r="29607" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29607" s="1"/>
+    </row>
+    <row r="29628" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29628" s="1"/>
+    </row>
+    <row r="29629" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29629" s="1"/>
+    </row>
+    <row r="29630" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29630" s="1"/>
+    </row>
+    <row r="29631" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29631" s="1"/>
+      <c r="B29631" s="1"/>
+    </row>
+    <row r="29632" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29632" s="1"/>
+    </row>
+    <row r="29633" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29633" s="1"/>
+    </row>
+    <row r="29690" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29690" s="1"/>
+    </row>
+    <row r="29691" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29691" s="1"/>
+    </row>
+    <row r="29692" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29692" s="1"/>
+    </row>
+    <row r="29693" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29693" s="1"/>
+    </row>
+    <row r="29694" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29694" s="1"/>
+    </row>
+    <row r="29695" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A29695" s="1"/>
+    </row>
+    <row r="29701" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29701" s="1"/>
+    </row>
+    <row r="29793" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29793" s="1"/>
+    </row>
+    <row r="29855" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29855" s="1"/>
+    </row>
+    <row r="29860" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29860" s="1"/>
+    </row>
+    <row r="29874" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29874" s="1"/>
+    </row>
+    <row r="29884" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29884" s="1"/>
+    </row>
+    <row r="29944" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29944" s="1"/>
+    </row>
+    <row r="29978" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B29978" s="1"/>
+    </row>
+    <row r="30097" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30097" s="1"/>
+    </row>
+    <row r="30126" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30126" s="1"/>
+    </row>
+    <row r="30205" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30205" s="1"/>
+    </row>
+    <row r="30216" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30216" s="1"/>
+    </row>
+    <row r="30217" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30217" s="1"/>
+    </row>
+    <row r="30218" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30218" s="1"/>
+    </row>
+    <row r="30219" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30219" s="1"/>
+    </row>
+    <row r="30220" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30220" s="1"/>
+    </row>
+    <row r="30221" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30221" s="1"/>
+    </row>
+    <row r="30228" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30228" s="1"/>
+    </row>
+    <row r="30277" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30277" s="1"/>
+    </row>
+    <row r="30331" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30331" s="1"/>
+    </row>
+    <row r="30345" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30345" s="1"/>
+    </row>
+    <row r="30346" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30346" s="1"/>
+    </row>
+    <row r="30347" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30347" s="1"/>
+    </row>
+    <row r="30348" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30348" s="1"/>
+    </row>
+    <row r="30349" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30349" s="1"/>
+    </row>
+    <row r="30350" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30350" s="1"/>
+    </row>
+    <row r="30351" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30351" s="1"/>
+    </row>
+    <row r="30367" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30367" s="1"/>
+    </row>
+    <row r="30389" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30389" s="1"/>
+    </row>
+    <row r="30390" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30390" s="1"/>
+      <c r="B30390" s="1"/>
+    </row>
+    <row r="30391" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30391" s="1"/>
+    </row>
+    <row r="30392" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30392" s="1"/>
+    </row>
+    <row r="30393" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30393" s="1"/>
+    </row>
+    <row r="30394" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30394" s="1"/>
+    </row>
+    <row r="30395" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30395" s="1"/>
+    </row>
+    <row r="30396" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30396" s="1"/>
+      <c r="B30396" s="1"/>
+    </row>
+    <row r="30397" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30397" s="1"/>
+    </row>
+    <row r="30483" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30483" s="1"/>
+    </row>
+    <row r="30499" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30499" s="1"/>
+    </row>
+    <row r="30500" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30500" s="1"/>
+    </row>
+    <row r="30501" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30501" s="1"/>
+    </row>
+    <row r="30502" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30502" s="1"/>
+    </row>
+    <row r="30503" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30503" s="1"/>
+    </row>
+    <row r="30504" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30504" s="1"/>
+    </row>
+    <row r="30505" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A30505" s="1"/>
+    </row>
+    <row r="30666" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30666" s="1"/>
+    </row>
+    <row r="30680" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30680" s="1"/>
+    </row>
+    <row r="30737" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30737" s="1"/>
+    </row>
+    <row r="30813" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30813" s="1"/>
+    </row>
+    <row r="30818" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30818" s="1"/>
+    </row>
+    <row r="30865" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30865" s="1"/>
+    </row>
+    <row r="30899" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30899" s="1"/>
+    </row>
+    <row r="30918" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B30918" s="1"/>
+    </row>
+    <row r="31000" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31000" s="1"/>
+    </row>
+    <row r="31001" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31001" s="1"/>
+    </row>
+    <row r="31035" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31035" s="1"/>
+    </row>
+    <row r="31054" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31054" s="1"/>
+    </row>
+    <row r="31218" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31218" s="1"/>
+    </row>
+    <row r="31246" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31246" s="1"/>
+    </row>
+    <row r="31266" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31266" s="1"/>
+    </row>
+    <row r="31341" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31341" s="1"/>
+    </row>
+    <row r="31362" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31362" s="1"/>
+    </row>
+    <row r="31479" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31479" s="1"/>
+    </row>
+    <row r="31480" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31480" s="1"/>
+    </row>
+    <row r="31481" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31481" s="1"/>
+    </row>
+    <row r="31556" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31556" s="1"/>
+    </row>
+    <row r="31564" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31564" s="1"/>
+    </row>
+    <row r="31574" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31574" s="1"/>
+    </row>
+    <row r="31654" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31654" s="1"/>
+    </row>
+    <row r="31655" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31655" s="1"/>
+    </row>
+    <row r="31656" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31656" s="1"/>
+    </row>
+    <row r="31724" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31724" s="1"/>
+    </row>
+    <row r="31725" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31725" s="1"/>
+    </row>
+    <row r="31726" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31726" s="1"/>
+    </row>
+    <row r="31727" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31727" s="1"/>
+    </row>
+    <row r="31728" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A31728" s="1"/>
+    </row>
+    <row r="31766" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31766" s="1"/>
+    </row>
+    <row r="31767" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31767" s="1"/>
+    </row>
+    <row r="31783" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31783" s="1"/>
+    </row>
+    <row r="31809" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31809" s="1"/>
+    </row>
+    <row r="31855" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31855" s="1"/>
+    </row>
+    <row r="31902" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31902" s="1"/>
+    </row>
+    <row r="31939" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31939" s="1"/>
+    </row>
+    <row r="31959" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31959" s="1"/>
+    </row>
+    <row r="31971" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B31971" s="1"/>
+    </row>
+    <row r="32110" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32110" s="1"/>
+    </row>
+    <row r="32111" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32111" s="1"/>
+    </row>
+    <row r="32112" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32112" s="1"/>
+    </row>
+    <row r="32113" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32113" s="1"/>
+    </row>
+    <row r="32114" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32114" s="1"/>
+    </row>
+    <row r="32146" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32146" s="1"/>
+    </row>
+    <row r="32161" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32161" s="1"/>
+    </row>
+    <row r="32267" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32267" s="1"/>
+    </row>
+    <row r="32276" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32276" s="1"/>
+    </row>
+    <row r="32315" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32315" s="1"/>
+    </row>
+    <row r="32378" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32378" s="1"/>
+    </row>
+    <row r="32379" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32379" s="1"/>
+    </row>
+    <row r="32380" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32380" s="1"/>
+    </row>
+    <row r="32381" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32381" s="1"/>
+    </row>
+    <row r="32403" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32403" s="1"/>
+    </row>
+    <row r="32438" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32438" s="1"/>
+    </row>
+    <row r="32500" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32500" s="1"/>
+    </row>
+    <row r="32574" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32574" s="1"/>
+    </row>
+    <row r="32581" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32581" s="1"/>
+    </row>
+    <row r="32596" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B32596" s="1"/>
+    </row>
+    <row r="32606" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32606" s="1"/>
+    </row>
+    <row r="32607" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32607" s="1"/>
+      <c r="B32607" s="1"/>
+    </row>
+    <row r="32608" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32608" s="1"/>
+    </row>
+    <row r="32609" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32609" s="1"/>
+    </row>
+    <row r="32610" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32610" s="1"/>
+    </row>
+    <row r="32611" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32611" s="1"/>
+    </row>
+    <row r="32612" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32612" s="1"/>
+    </row>
+    <row r="32613" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32613" s="1"/>
+    </row>
+    <row r="32614" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32614" s="1"/>
+    </row>
+    <row r="32623" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B32623" s="1"/>
+    </row>
+    <row r="32642" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32642" s="1"/>
+    </row>
+    <row r="32656" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32656" s="1"/>
+    </row>
+    <row r="32700" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32700" s="1"/>
+    </row>
+    <row r="32701" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32701" s="1"/>
+    </row>
+    <row r="32702" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32702" s="1"/>
+    </row>
+    <row r="32703" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32703" s="1"/>
+    </row>
+    <row r="32704" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32704" s="1"/>
+    </row>
+    <row r="32705" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32705" s="1"/>
+    </row>
+    <row r="32753" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32753" s="1"/>
+    </row>
+    <row r="32754" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32754" s="1"/>
+    </row>
+    <row r="32755" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32755" s="1"/>
+    </row>
+    <row r="32756" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A32756" s="1"/>
+    </row>
+    <row r="32852" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32852" s="1"/>
+    </row>
+    <row r="32891" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32891" s="1"/>
+    </row>
+    <row r="32893" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32893" s="1"/>
+    </row>
+    <row r="32990" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B32990" s="1"/>
+    </row>
+    <row r="33017" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33017" s="1"/>
+    </row>
+    <row r="33028" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33028" s="1"/>
+    </row>
+    <row r="33092" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33092" s="1"/>
+    </row>
+    <row r="33136" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33136" s="1"/>
+    </row>
+    <row r="33175" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33175" s="1"/>
+    </row>
+    <row r="33216" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33216" s="1"/>
+    </row>
+    <row r="33257" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33257" s="1"/>
+    </row>
+    <row r="33320" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33320" s="1"/>
+    </row>
+    <row r="33321" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33321" s="1"/>
+    </row>
+    <row r="33322" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33322" s="1"/>
+    </row>
+    <row r="33323" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33323" s="1"/>
+    </row>
+    <row r="33324" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33324" s="1"/>
+    </row>
+    <row r="33325" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33325" s="1"/>
+    </row>
+    <row r="33336" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33336" s="1"/>
+    </row>
+    <row r="33596" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33596" s="1"/>
+    </row>
+    <row r="33636" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33636" s="1"/>
+    </row>
+    <row r="33774" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33774" s="1"/>
+    </row>
+    <row r="33875" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33875" s="1"/>
+    </row>
+    <row r="33890" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33890" s="1"/>
+    </row>
+    <row r="33891" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33891" s="1"/>
+    </row>
+    <row r="33892" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33892" s="1"/>
+    </row>
+    <row r="33893" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33893" s="1"/>
+    </row>
+    <row r="33894" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33894" s="1"/>
+    </row>
+    <row r="33895" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33895" s="1"/>
+    </row>
+    <row r="33896" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33896" s="1"/>
+    </row>
+    <row r="33897" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33897" s="1"/>
+    </row>
+    <row r="33945" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33945" s="1"/>
+    </row>
+    <row r="33971" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B33971" s="1"/>
+    </row>
+    <row r="34080" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34080" s="1"/>
+    </row>
+    <row r="34092" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34092" s="1"/>
+    </row>
+    <row r="34157" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34157" s="1"/>
+    </row>
+    <row r="34168" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34168" s="1"/>
+    </row>
+    <row r="34265" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34265" s="1"/>
+    </row>
+    <row r="34292" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34292" s="1"/>
+    </row>
+    <row r="34359" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34359" s="1"/>
+    </row>
+    <row r="34373" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34373" s="1"/>
+    </row>
+    <row r="34374" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34374" s="1"/>
+    </row>
+    <row r="34375" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34375" s="1"/>
+    </row>
+    <row r="34376" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34376" s="1"/>
+    </row>
+    <row r="34377" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34377" s="1"/>
+    </row>
+    <row r="34378" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34378" s="1"/>
+    </row>
+    <row r="34389" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34389" s="1"/>
+    </row>
+    <row r="34435" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34435" s="1"/>
+    </row>
+    <row r="34442" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34442" s="1"/>
+    </row>
+    <row r="34541" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34541" s="1"/>
+    </row>
+    <row r="34619" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34619" s="1"/>
+    </row>
+    <row r="34717" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34717" s="1"/>
+    </row>
+    <row r="34741" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34741" s="1"/>
+    </row>
+    <row r="34742" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34742" s="1"/>
+    </row>
+    <row r="34743" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34743" s="1"/>
+    </row>
+    <row r="34744" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34744" s="1"/>
+    </row>
+    <row r="34745" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34745" s="1"/>
+    </row>
+    <row r="34799" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34799" s="1"/>
+    </row>
+    <row r="34950" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34950" s="1"/>
+    </row>
+    <row r="34975" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B34975" s="1"/>
+    </row>
+    <row r="34979" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B34979" s="1"/>
+    </row>
+    <row r="34985" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34985" s="1"/>
+    </row>
+    <row r="34986" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34986" s="1"/>
+    </row>
+    <row r="34988" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B34988" s="1"/>
+    </row>
+    <row r="35007" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35007" s="1"/>
+    </row>
+    <row r="35064" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35064" s="1"/>
+    </row>
+    <row r="35084" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35084" s="1"/>
+    </row>
+    <row r="35134" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35134" s="1"/>
+    </row>
+    <row r="35205" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35205" s="1"/>
+    </row>
+    <row r="35207" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35207" s="1"/>
+    </row>
+    <row r="35293" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35293" s="1"/>
+    </row>
+    <row r="35317" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35317" s="1"/>
+    </row>
+    <row r="35512" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35512" s="1"/>
+    </row>
+    <row r="35551" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35551" s="1"/>
+    </row>
+    <row r="35552" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35552" s="1"/>
+    </row>
+    <row r="35553" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35553" s="1"/>
+    </row>
+    <row r="35554" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35554" s="1"/>
+    </row>
+    <row r="35555" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35555" s="1"/>
+    </row>
+    <row r="35556" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35556" s="1"/>
+    </row>
+    <row r="35557" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35557" s="1"/>
+    </row>
+    <row r="35558" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35558" s="1"/>
+    </row>
+    <row r="35583" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35583" s="1"/>
+    </row>
+    <row r="35584" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35584" s="1"/>
+    </row>
+    <row r="35585" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35585" s="1"/>
+    </row>
+    <row r="35586" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35586" s="1"/>
+    </row>
+    <row r="35616" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35616" s="1"/>
+    </row>
+    <row r="35617" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35617" s="1"/>
+    </row>
+    <row r="35618" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35618" s="1"/>
+    </row>
+    <row r="35619" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35619" s="1"/>
+    </row>
+    <row r="35620" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35620" s="1"/>
+    </row>
+    <row r="35621" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35621" s="1"/>
+    </row>
+    <row r="35622" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35622" s="1"/>
+    </row>
+    <row r="35623" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35623" s="1"/>
+    </row>
+    <row r="35624" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35624" s="1"/>
+      <c r="B35624" s="1"/>
+    </row>
+    <row r="35625" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35625" s="1"/>
+    </row>
+    <row r="35626" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35626" s="1"/>
+    </row>
+    <row r="35627" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35627" s="1"/>
+    </row>
+    <row r="35628" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35628" s="1"/>
+    </row>
+    <row r="35791" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35791" s="1"/>
+    </row>
+    <row r="35895" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35895" s="1"/>
+    </row>
+    <row r="35896" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35896" s="1"/>
+    </row>
+    <row r="35964" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B35964" s="1"/>
+    </row>
+    <row r="36031" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36031" s="1"/>
+    </row>
+    <row r="36180" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36180" s="1"/>
+    </row>
+    <row r="36209" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36209" s="1"/>
+    </row>
+    <row r="36250" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36250" s="1"/>
+    </row>
+    <row r="36509" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36509" s="1"/>
+    </row>
+    <row r="36512" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36512" s="1"/>
+    </row>
+    <row r="36540" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36540" s="1"/>
+    </row>
+    <row r="36568" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36568" s="1"/>
+    </row>
+    <row r="36658" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36658" s="1"/>
+    </row>
+    <row r="36670" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36670" s="1"/>
+    </row>
+    <row r="36699" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36699" s="1"/>
+    </row>
+    <row r="36752" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36752" s="1"/>
+    </row>
+    <row r="36785" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36785" s="1"/>
+    </row>
+    <row r="36795" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36795" s="1"/>
+    </row>
+    <row r="36818" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36818" s="1"/>
+    </row>
+    <row r="36838" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36838" s="1"/>
+    </row>
+    <row r="36839" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36839" s="1"/>
+    </row>
+    <row r="36840" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36840" s="1"/>
+    </row>
+    <row r="36841" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36841" s="1"/>
+    </row>
+    <row r="36842" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36842" s="1"/>
+    </row>
+    <row r="36843" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36843" s="1"/>
+    </row>
+    <row r="36844" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A36844" s="1"/>
+    </row>
+    <row r="36907" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36907" s="1"/>
+    </row>
+    <row r="36959" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B36959" s="1"/>
+    </row>
+    <row r="37113" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37113" s="1"/>
+    </row>
+    <row r="37114" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37114" s="1"/>
+    </row>
+    <row r="37115" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37115" s="1"/>
+    </row>
+    <row r="37116" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37116" s="1"/>
+    </row>
+    <row r="37117" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37117" s="1"/>
+    </row>
+    <row r="37118" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37118" s="1"/>
+    </row>
+    <row r="37169" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37169" s="1"/>
+    </row>
+    <row r="37207" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37207" s="1"/>
+    </row>
+    <row r="37233" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37233" s="1"/>
+    </row>
+    <row r="37246" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37246" s="1"/>
+    </row>
+    <row r="37266" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37266" s="1"/>
+    </row>
+    <row r="37417" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37417" s="1"/>
+    </row>
+    <row r="37428" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37428" s="1"/>
+    </row>
+    <row r="37433" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37433" s="1"/>
+    </row>
+    <row r="37532" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37532" s="1"/>
+    </row>
+    <row r="37595" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37595" s="1"/>
+    </row>
+    <row r="37739" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B37739" s="1"/>
+    </row>
+    <row r="37742" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A37742" s="1"/>
+    </row>
+    <row r="37743" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A37743" s="1"/>
+    </row>
+    <row r="37744" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A37744" s="1"/>
+    </row>
+    <row r="37745" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37745" s="1"/>
+    </row>
+    <row r="37746" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37746" s="1"/>
+    </row>
+    <row r="37774" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37774" s="1"/>
+    </row>
+    <row r="37844" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37844" s="1"/>
+    </row>
+    <row r="37883" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37883" s="1"/>
+    </row>
+    <row r="37887" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37887" s="1"/>
+    </row>
+    <row r="37900" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37900" s="1"/>
+    </row>
+    <row r="37925" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B37925" s="1"/>
+    </row>
+    <row r="38033" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38033" s="1"/>
+    </row>
+    <row r="38065" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38065" s="1"/>
+    </row>
+    <row r="38124" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38124" s="1"/>
+    </row>
+    <row r="38125" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38125" s="1"/>
+    </row>
+    <row r="38126" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38126" s="1"/>
+    </row>
+    <row r="38127" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38127" s="1"/>
+    </row>
+    <row r="38128" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38128" s="1"/>
+    </row>
+    <row r="38129" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38129" s="1"/>
+    </row>
+    <row r="38130" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38130" s="1"/>
+    </row>
+    <row r="38131" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38131" s="1"/>
+    </row>
+    <row r="38174" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38174" s="1"/>
+    </row>
+    <row r="38175" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38175" s="1"/>
+    </row>
+    <row r="38176" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38176" s="1"/>
+    </row>
+    <row r="38177" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38177" s="1"/>
+    </row>
+    <row r="38178" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38178" s="1"/>
+    </row>
+    <row r="38179" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38179" s="1"/>
+    </row>
+    <row r="38241" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38241" s="1"/>
+    </row>
+    <row r="38242" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38242" s="1"/>
+    </row>
+    <row r="38243" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38243" s="1"/>
+    </row>
+    <row r="38244" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38244" s="1"/>
+    </row>
+    <row r="38245" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38245" s="1"/>
+    </row>
+    <row r="38246" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38246" s="1"/>
+    </row>
+    <row r="38247" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38247" s="1"/>
+    </row>
+    <row r="38253" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B38253" s="1"/>
+    </row>
+    <row r="38254" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B38254" s="1"/>
+    </row>
+    <row r="38349" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38349" s="1"/>
+    </row>
+    <row r="38377" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38377" s="1"/>
+    </row>
+    <row r="38378" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38378" s="1"/>
+    </row>
+    <row r="38379" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38379" s="1"/>
+    </row>
+    <row r="38380" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38380" s="1"/>
+    </row>
+    <row r="38381" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38381" s="1"/>
+    </row>
+    <row r="38401" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38401" s="1"/>
+    </row>
+    <row r="38428" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38428" s="1"/>
+    </row>
+    <row r="38447" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38447" s="1"/>
+    </row>
+    <row r="38448" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38448" s="1"/>
+    </row>
+    <row r="38476" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38476" s="1"/>
+    </row>
+    <row r="38598" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38598" s="1"/>
+    </row>
+    <row r="38667" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38667" s="1"/>
+    </row>
+    <row r="38695" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38695" s="1"/>
+    </row>
+    <row r="38700" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38700" s="1"/>
+    </row>
+    <row r="38794" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38794" s="1"/>
+    </row>
+    <row r="38831" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38831" s="1"/>
+    </row>
+    <row r="38839" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38839" s="1"/>
+    </row>
+    <row r="38884" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38884" s="1"/>
+    </row>
+    <row r="38890" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38890" s="1"/>
+    </row>
+    <row r="38931" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38931" s="1"/>
+    </row>
+    <row r="38975" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B38975" s="1"/>
+    </row>
+    <row r="39013" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B39013" s="1"/>
+    </row>
+    <row r="39019" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39019" s="1"/>
+    </row>
+    <row r="39020" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39020" s="1"/>
+    </row>
+    <row r="39021" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39021" s="1"/>
+    </row>
+    <row r="39024" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B39024" s="1"/>
+    </row>
+    <row r="39042" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39042" s="1"/>
+    </row>
+    <row r="39043" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39043" s="1"/>
+    </row>
+    <row r="39088" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39088" s="1"/>
+    </row>
+    <row r="39167" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39167" s="1"/>
+    </row>
+    <row r="39293" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39293" s="1"/>
+    </row>
+    <row r="39330" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39330" s="1"/>
+    </row>
+    <row r="39426" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39426" s="1"/>
+    </row>
+    <row r="39532" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39532" s="1"/>
+    </row>
+    <row r="39533" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39533" s="1"/>
+    </row>
+    <row r="39534" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39534" s="1"/>
+    </row>
+    <row r="39535" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39535" s="1"/>
+    </row>
+    <row r="39536" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39536" s="1"/>
+    </row>
+    <row r="39537" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39537" s="1"/>
+    </row>
+    <row r="39538" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39538" s="1"/>
+    </row>
+    <row r="39539" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39539" s="1"/>
+    </row>
+    <row r="39540" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39540" s="1"/>
+    </row>
+    <row r="39555" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39555" s="1"/>
+    </row>
+    <row r="39565" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39565" s="1"/>
+    </row>
+    <row r="39623" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39623" s="1"/>
+    </row>
+    <row r="39661" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39661" s="1"/>
+    </row>
+    <row r="39680" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39680" s="1"/>
+    </row>
+    <row r="39754" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39754" s="1"/>
+    </row>
+    <row r="39802" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39802" s="1"/>
+    </row>
+    <row r="39821" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39821" s="1"/>
+    </row>
+    <row r="39829" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39829" s="1"/>
+    </row>
+    <row r="39879" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39879" s="1"/>
+    </row>
+    <row r="39880" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39880" s="1"/>
+    </row>
+    <row r="39881" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39881" s="1"/>
+    </row>
+    <row r="39882" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39882" s="1"/>
+    </row>
+    <row r="39883" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39883" s="1"/>
+    </row>
+    <row r="39884" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39884" s="1"/>
+    </row>
+    <row r="39885" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39885" s="1"/>
+    </row>
+    <row r="39886" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39886" s="1"/>
+    </row>
+    <row r="39887" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39887" s="1"/>
+    </row>
+    <row r="39943" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39943" s="1"/>
+    </row>
+    <row r="39974" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B39974" s="1"/>
+    </row>
+    <row r="40025" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40025" s="1"/>
+    </row>
+    <row r="40118" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40118" s="1"/>
+    </row>
+    <row r="40122" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40122" s="1"/>
+    </row>
+    <row r="40126" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40126" s="1"/>
+    </row>
+    <row r="40150" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40150" s="1"/>
+    </row>
+    <row r="40255" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40255" s="1"/>
+    </row>
+    <row r="40330" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40330" s="1"/>
+    </row>
+    <row r="40331" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40331" s="1"/>
+    </row>
+    <row r="40353" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40353" s="1"/>
+    </row>
+    <row r="40371" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40371" s="1"/>
+    </row>
+    <row r="40393" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40393" s="1"/>
+    </row>
+    <row r="40427" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40427" s="1"/>
+    </row>
+    <row r="40432" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40432" s="1"/>
+    </row>
+    <row r="40440" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40440" s="1"/>
+    </row>
+    <row r="40532" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40532" s="1"/>
+    </row>
+    <row r="40533" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40533" s="1"/>
+    </row>
+    <row r="40534" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40534" s="1"/>
+    </row>
+    <row r="40535" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40535" s="1"/>
+    </row>
+    <row r="40536" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40536" s="1"/>
+    </row>
+    <row r="40545" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40545" s="1"/>
+    </row>
+    <row r="40561" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B40561" s="1"/>
+    </row>
+    <row r="40570" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40570" s="1"/>
+    </row>
+    <row r="40571" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40571" s="1"/>
+    </row>
+    <row r="40572" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40572" s="1"/>
+    </row>
+    <row r="40573" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40573" s="1"/>
+    </row>
+    <row r="40574" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40574" s="1"/>
+    </row>
+    <row r="40575" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40575" s="1"/>
+    </row>
+    <row r="40607" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40607" s="1"/>
+    </row>
+    <row r="40646" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40646" s="1"/>
+    </row>
+    <row r="40647" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40647" s="1"/>
+    </row>
+    <row r="40648" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40648" s="1"/>
+    </row>
+    <row r="40649" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40649" s="1"/>
+    </row>
+    <row r="40650" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40650" s="1"/>
+    </row>
+    <row r="40651" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40651" s="1"/>
+    </row>
+    <row r="40652" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40652" s="1"/>
+    </row>
+    <row r="40653" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40653" s="1"/>
+    </row>
+    <row r="40672" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40672" s="1"/>
+    </row>
+    <row r="40717" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40717" s="1"/>
+    </row>
+    <row r="40718" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40718" s="1"/>
+    </row>
+    <row r="40719" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40719" s="1"/>
+    </row>
+    <row r="40720" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40720" s="1"/>
+    </row>
+    <row r="40721" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40721" s="1"/>
+    </row>
+    <row r="40722" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40722" s="1"/>
+    </row>
+    <row r="40723" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40723" s="1"/>
+    </row>
+    <row r="40798" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40798" s="1"/>
+    </row>
+    <row r="40799" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40799" s="1"/>
+    </row>
+    <row r="40800" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40800" s="1"/>
+    </row>
+    <row r="40801" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40801" s="1"/>
+    </row>
+    <row r="40805" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B40805" s="1"/>
+    </row>
+    <row r="40845" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40845" s="1"/>
+    </row>
+    <row r="40916" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B40916" s="1"/>
+    </row>
+    <row r="40951" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40951" s="1"/>
+    </row>
+    <row r="40952" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40952" s="1"/>
+    </row>
+    <row r="40953" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40953" s="1"/>
+    </row>
+    <row r="40954" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40954" s="1"/>
+    </row>
+    <row r="40955" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40955" s="1"/>
+    </row>
+    <row r="40956" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40956" s="1"/>
+    </row>
+    <row r="40957" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40957" s="1"/>
+    </row>
+    <row r="41011" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41011" s="1"/>
+    </row>
+    <row r="41038" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41038" s="1"/>
+    </row>
+    <row r="41105" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41105" s="1"/>
+    </row>
+    <row r="41109" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41109" s="1"/>
+    </row>
+    <row r="41124" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41124" s="1"/>
+    </row>
+    <row r="41128" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41128" s="1"/>
+    </row>
+    <row r="41147" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41147" s="1"/>
+    </row>
+    <row r="41160" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41160" s="1"/>
+    </row>
+    <row r="41183" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A41183" s="1"/>
+    </row>
+    <row r="41184" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A41184" s="1"/>
+    </row>
+    <row r="41185" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41185" s="1"/>
+    </row>
+    <row r="41186" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41186" s="1"/>
+    </row>
+    <row r="41194" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B41194" s="1"/>
+    </row>
+    <row r="41199" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B41199" s="1"/>
+    </row>
+    <row r="41260" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41260" s="1"/>
+    </row>
+    <row r="41279" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41279" s="1"/>
+    </row>
+    <row r="41342" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A41342" s="1"/>
+    </row>
+    <row r="41343" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A41343" s="1"/>
+    </row>
+    <row r="41362" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41362" s="1"/>
+    </row>
+    <row r="41413" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41413" s="1"/>
+    </row>
+    <row r="41415" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41415" s="1"/>
+    </row>
+    <row r="41508" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41508" s="1"/>
+    </row>
+    <row r="41543" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41543" s="1"/>
+    </row>
+    <row r="41557" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41557" s="1"/>
+    </row>
+    <row r="41570" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41570" s="1"/>
+    </row>
+    <row r="41571" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41571" s="1"/>
+    </row>
+    <row r="41572" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41572" s="1"/>
+    </row>
+    <row r="41573" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41573" s="1"/>
+    </row>
+    <row r="41582" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B41582" s="1"/>
+    </row>
+    <row r="41590" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41590" s="1"/>
+    </row>
+    <row r="41661" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41661" s="1"/>
+    </row>
+    <row r="41842" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41842" s="1"/>
+    </row>
+    <row r="41885" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41885" s="1"/>
+    </row>
+    <row r="41895" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41895" s="1"/>
+    </row>
+    <row r="41905" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B41905" s="1"/>
+    </row>
+    <row r="42022" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42022" s="1"/>
+    </row>
+    <row r="42089" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42089" s="1"/>
+    </row>
+    <row r="42091" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42091" s="1"/>
+    </row>
+    <row r="42104" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42104" s="1"/>
+    </row>
+    <row r="42108" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42108" s="1"/>
+    </row>
+    <row r="42139" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42139" s="1"/>
+    </row>
+    <row r="42146" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42146" s="1"/>
+    </row>
+    <row r="42203" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42203" s="1"/>
+    </row>
+    <row r="42237" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42237" s="1"/>
+    </row>
+    <row r="42259" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42259" s="1"/>
+    </row>
+    <row r="42435" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42435" s="1"/>
+    </row>
+    <row r="42498" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42498" s="1"/>
+    </row>
+    <row r="42515" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42515" s="1"/>
+    </row>
+    <row r="42516" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42516" s="1"/>
+    </row>
+    <row r="42517" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42517" s="1"/>
+    </row>
+    <row r="42521" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42521" s="1"/>
+    </row>
+    <row r="42522" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42522" s="1"/>
+    </row>
+    <row r="42523" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42523" s="1"/>
+    </row>
+    <row r="42524" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42524" s="1"/>
+    </row>
+    <row r="42525" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42525" s="1"/>
+    </row>
+    <row r="42561" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42561" s="1"/>
+    </row>
+    <row r="42649" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42649" s="1"/>
+    </row>
+    <row r="42696" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42696" s="1"/>
+    </row>
+    <row r="42709" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42709" s="1"/>
+    </row>
+    <row r="42786" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42786" s="1"/>
+    </row>
+    <row r="42837" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42837" s="1"/>
+    </row>
+    <row r="42849" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42849" s="1"/>
+    </row>
+    <row r="42850" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42850" s="1"/>
+    </row>
+    <row r="42851" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42851" s="1"/>
+    </row>
+    <row r="42852" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42852" s="1"/>
+    </row>
+    <row r="42853" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42853" s="1"/>
+    </row>
+    <row r="42854" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42854" s="1"/>
+    </row>
+    <row r="42855" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42855" s="1"/>
+    </row>
+    <row r="42856" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42856" s="1"/>
+    </row>
+    <row r="42857" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42857" s="1"/>
+    </row>
+    <row r="42877" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42877" s="1"/>
+    </row>
+    <row r="42902" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42902" s="1"/>
+    </row>
+    <row r="42953" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B42953" s="1"/>
+    </row>
+    <row r="43149" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43149" s="1"/>
+    </row>
+    <row r="43237" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43237" s="1"/>
+    </row>
+    <row r="43245" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43245" s="1"/>
+    </row>
+    <row r="43295" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43295" s="1"/>
+    </row>
+    <row r="43459" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B43459" s="1"/>
+    </row>
+    <row r="43471" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A43471" s="1"/>
+    </row>
+    <row r="43472" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A43472" s="1"/>
+    </row>
+    <row r="43473" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A43473" s="1"/>
+    </row>
+    <row r="43474" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A43474" s="1"/>
+    </row>
+    <row r="43528" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A43528" s="1"/>
+    </row>
+    <row r="43529" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A43529" s="1"/>
+    </row>
+    <row r="43530" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A43530" s="1"/>
+    </row>
+    <row r="43531" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A43531" s="1"/>
+    </row>
+    <row r="43532" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A43532" s="1"/>
+    </row>
+    <row r="43540" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43540" s="1"/>
+    </row>
+    <row r="43705" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43705" s="1"/>
+    </row>
+    <row r="43712" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43712" s="1"/>
+    </row>
+    <row r="43720" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43720" s="1"/>
+    </row>
+    <row r="43733" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43733" s="1"/>
+    </row>
+    <row r="43819" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43819" s="1"/>
+    </row>
+    <row r="43845" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43845" s="1"/>
+    </row>
+    <row r="43956" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43956" s="1"/>
+    </row>
+    <row r="43978" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B43978" s="1"/>
+    </row>
+    <row r="44067" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44067" s="1"/>
+    </row>
+    <row r="44085" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44085" s="1"/>
+    </row>
+    <row r="44135" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44135" s="1"/>
+    </row>
+    <row r="44157" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44157" s="1"/>
+    </row>
+    <row r="44176" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44176" s="1"/>
+    </row>
+    <row r="44177" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A44177" s="1"/>
+    </row>
+    <row r="44178" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A44178" s="1"/>
+    </row>
+    <row r="44179" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A44179" s="1"/>
+      <c r="B44179" s="1"/>
+    </row>
+    <row r="44210" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44210" s="1"/>
+    </row>
+    <row r="44223" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44223" s="1"/>
+    </row>
+    <row r="44277" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44277" s="1"/>
+    </row>
+    <row r="44282" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44282" s="1"/>
+    </row>
+    <row r="44289" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44289" s="1"/>
+    </row>
+    <row r="44290" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44290" s="1"/>
+    </row>
+    <row r="44291" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44291" s="1"/>
+    </row>
+    <row r="44292" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44292" s="1"/>
+    </row>
+    <row r="44293" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44293" s="1"/>
+    </row>
+    <row r="44294" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44294" s="1"/>
+    </row>
+    <row r="44295" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44295" s="1"/>
+    </row>
+    <row r="44296" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44296" s="1"/>
+    </row>
+    <row r="44330" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44330" s="1"/>
+    </row>
+    <row r="44457" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44457" s="1"/>
+    </row>
+    <row r="44481" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44481" s="1"/>
+    </row>
+    <row r="44545" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44545" s="1"/>
+    </row>
+    <row r="44546" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44546" s="1"/>
+    </row>
+    <row r="44547" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44547" s="1"/>
+    </row>
+    <row r="44548" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44548" s="1"/>
+    </row>
+    <row r="44549" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44549" s="1"/>
+    </row>
+    <row r="44550" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44550" s="1"/>
+    </row>
+    <row r="44551" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44551" s="1"/>
+    </row>
+    <row r="44628" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44628" s="1"/>
+    </row>
+    <row r="44629" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44629" s="1"/>
+    </row>
+    <row r="44630" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44630" s="1"/>
+    </row>
+    <row r="44643" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44643" s="1"/>
+    </row>
+    <row r="44738" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44738" s="1"/>
+    </row>
+    <row r="44771" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44771" s="1"/>
+    </row>
+    <row r="44802" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44802" s="1"/>
+    </row>
+    <row r="44840" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44840" s="1"/>
+    </row>
+    <row r="44896" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44896" s="1"/>
+    </row>
+    <row r="44924" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44924" s="1"/>
+    </row>
+    <row r="44945" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B44945" s="1"/>
+    </row>
+    <row r="44987" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44987" s="1"/>
+    </row>
+    <row r="44988" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44988" s="1"/>
+    </row>
+    <row r="44989" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44989" s="1"/>
+    </row>
+    <row r="44990" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44990" s="1"/>
+    </row>
+    <row r="44991" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44991" s="1"/>
+    </row>
+    <row r="44992" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44992" s="1"/>
+    </row>
+    <row r="45016" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45016" s="1"/>
+    </row>
+    <row r="45020" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45020" s="1"/>
+    </row>
+    <row r="45181" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45181" s="1"/>
+    </row>
+    <row r="45199" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45199" s="1"/>
+    </row>
+    <row r="45343" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45343" s="1"/>
+    </row>
+    <row r="45414" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45414" s="1"/>
+      <c r="B45414" s="1"/>
+    </row>
+    <row r="45415" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45415" s="1"/>
+    </row>
+    <row r="45416" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45416" s="1"/>
+    </row>
+    <row r="45417" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45417" s="1"/>
+    </row>
+    <row r="45418" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45418" s="1"/>
+    </row>
+    <row r="45419" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45419" s="1"/>
+    </row>
+    <row r="45517" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45517" s="1"/>
+    </row>
+    <row r="45570" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B45570" s="1"/>
+    </row>
+    <row r="45572" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45572" s="1"/>
+    </row>
+    <row r="45573" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45573" s="1"/>
+    </row>
+    <row r="45574" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45574" s="1"/>
+    </row>
+    <row r="45578" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B45578" s="1"/>
+    </row>
+    <row r="45588" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45588" s="1"/>
+    </row>
+    <row r="45592" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45592" s="1"/>
+    </row>
+    <row r="45595" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45595" s="1"/>
+    </row>
+    <row r="45649" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45649" s="1"/>
+    </row>
+    <row r="45737" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45737" s="1"/>
+    </row>
+    <row r="45790" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45790" s="1"/>
+    </row>
+    <row r="45904" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B45904" s="1"/>
+    </row>
+    <row r="46185" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46185" s="1"/>
+    </row>
+    <row r="46256" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46256" s="1"/>
+    </row>
+    <row r="46295" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46295" s="1"/>
+    </row>
+    <row r="46363" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46363" s="1"/>
+    </row>
+    <row r="46396" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46396" s="1"/>
+    </row>
+    <row r="46441" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46441" s="1"/>
+    </row>
+    <row r="46488" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46488" s="1"/>
+    </row>
+    <row r="46493" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46493" s="1"/>
+    </row>
+    <row r="46522" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46522" s="1"/>
+    </row>
+    <row r="46704" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46704" s="1"/>
+    </row>
+    <row r="46867" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46867" s="1"/>
+    </row>
+    <row r="46891" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46891" s="1"/>
+    </row>
+    <row r="46892" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B46892" s="1"/>
+    </row>
+    <row r="47072" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47072" s="1"/>
+    </row>
+    <row r="47083" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47083" s="1"/>
+    </row>
+    <row r="47120" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47120" s="1"/>
+    </row>
+    <row r="47155" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47155" s="1"/>
+    </row>
+    <row r="47169" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47169" s="1"/>
+      <c r="B47169" s="1"/>
+    </row>
+    <row r="47170" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47170" s="1"/>
+    </row>
+    <row r="47171" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47171" s="1"/>
+    </row>
+    <row r="47172" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47172" s="1"/>
+    </row>
+    <row r="47173" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47173" s="1"/>
+    </row>
+    <row r="47174" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47174" s="1"/>
+    </row>
+    <row r="47175" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47175" s="1"/>
+    </row>
+    <row r="47176" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47176" s="1"/>
+    </row>
+    <row r="47177" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47177" s="1"/>
+    </row>
+    <row r="47209" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47209" s="1"/>
+    </row>
+    <row r="47281" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47281" s="1"/>
+    </row>
+    <row r="47429" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47429" s="1"/>
+    </row>
+    <row r="47445" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47445" s="1"/>
+    </row>
+    <row r="47538" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47538" s="1"/>
+    </row>
+    <row r="47540" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47540" s="1"/>
+    </row>
+    <row r="47551" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47551" s="1"/>
+    </row>
+    <row r="47556" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A47556" s="1"/>
+    </row>
+    <row r="47557" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A47557" s="1"/>
+    </row>
+    <row r="47558" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A47558" s="1"/>
+    </row>
+    <row r="47559" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A47559" s="1"/>
+    </row>
+    <row r="47560" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A47560" s="1"/>
+    </row>
+    <row r="47618" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47618" s="1"/>
+    </row>
+    <row r="47706" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47706" s="1"/>
+    </row>
+    <row r="47707" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47707" s="1"/>
+      <c r="B47707" s="1"/>
+    </row>
+    <row r="47708" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47708" s="1"/>
+    </row>
+    <row r="47709" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47709" s="1"/>
+    </row>
+    <row r="47710" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47710" s="1"/>
+      <c r="B47710" s="1"/>
+    </row>
+    <row r="47722" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47722" s="1"/>
+    </row>
+    <row r="47755" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47755" s="1"/>
+    </row>
+    <row r="47777" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47777" s="1"/>
+    </row>
+    <row r="47781" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47781" s="1"/>
+    </row>
+    <row r="47826" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47826" s="1"/>
+    </row>
+    <row r="47837" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47837" s="1"/>
+    </row>
+    <row r="47849" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B47849" s="1"/>
+    </row>
+    <row r="47973" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47973" s="1"/>
+    </row>
+    <row r="47974" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47974" s="1"/>
+      <c r="B47974" s="1"/>
+    </row>
+    <row r="47975" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47975" s="1"/>
+    </row>
+    <row r="47976" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47976" s="1"/>
+    </row>
+    <row r="47977" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47977" s="1"/>
+    </row>
+    <row r="47978" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47978" s="1"/>
+    </row>
+    <row r="47979" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47979" s="1"/>
+    </row>
+    <row r="47980" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47980" s="1"/>
+    </row>
+    <row r="47981" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47981" s="1"/>
+    </row>
+    <row r="47982" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47982" s="1"/>
+    </row>
+    <row r="47983" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A47983" s="1"/>
+    </row>
+    <row r="48086" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48086" s="1"/>
+    </row>
+    <row r="48106" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B48106" s="1"/>
+    </row>
+    <row r="48108" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B48108" s="1"/>
+    </row>
+    <row r="48109" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48109" s="1"/>
+    </row>
+    <row r="48110" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48110" s="1"/>
+    </row>
+    <row r="48111" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48111" s="1"/>
+    </row>
+    <row r="48119" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48119" s="1"/>
+    </row>
+    <row r="48122" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48122" s="1"/>
+    </row>
+    <row r="48135" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B48135" s="1"/>
+    </row>
+    <row r="48136" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48136" s="1"/>
+    </row>
+    <row r="48137" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48137" s="1"/>
+    </row>
+    <row r="48138" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48138" s="1"/>
+    </row>
+    <row r="48139" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48139" s="1"/>
+    </row>
+    <row r="48149" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48149" s="1"/>
+    </row>
+    <row r="48176" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48176" s="1"/>
+    </row>
+    <row r="48230" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48230" s="1"/>
+    </row>
+    <row r="48257" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48257" s="1"/>
+    </row>
+    <row r="48343" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48343" s="1"/>
+    </row>
+    <row r="48362" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48362" s="1"/>
+    </row>
+    <row r="48465" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48465" s="1"/>
+    </row>
+    <row r="48466" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48466" s="1"/>
+    </row>
+    <row r="48467" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48467" s="1"/>
+    </row>
+    <row r="48468" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48468" s="1"/>
+    </row>
+    <row r="48469" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48469" s="1"/>
+    </row>
+    <row r="48543" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48543" s="1"/>
+    </row>
+    <row r="48544" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48544" s="1"/>
+    </row>
+    <row r="48545" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48545" s="1"/>
+    </row>
+    <row r="48546" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48546" s="1"/>
+    </row>
+    <row r="48547" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48547" s="1"/>
+    </row>
+    <row r="48592" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48592" s="1"/>
+    </row>
+    <row r="48662" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48662" s="1"/>
+    </row>
+    <row r="48724" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48724" s="1"/>
+    </row>
+    <row r="48770" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48770" s="1"/>
+    </row>
+    <row r="48829" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48829" s="1"/>
+    </row>
+    <row r="48857" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48857" s="1"/>
+    </row>
+    <row r="48886" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48886" s="1"/>
+    </row>
+    <row r="48933" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48933" s="1"/>
+    </row>
+    <row r="48963" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B48963" s="1"/>
+    </row>
+    <row r="48995" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48995" s="1"/>
+    </row>
+    <row r="48996" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48996" s="1"/>
+    </row>
+    <row r="48997" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48997" s="1"/>
+      <c r="B48997" s="1"/>
+    </row>
+    <row r="48998" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48998" s="1"/>
+    </row>
+    <row r="48999" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48999" s="1"/>
+    </row>
+    <row r="49000" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49000" s="1"/>
+    </row>
+    <row r="49017" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49017" s="1"/>
+    </row>
+    <row r="49124" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49124" s="1"/>
+    </row>
+    <row r="49135" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49135" s="1"/>
+    </row>
+    <row r="49143" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49143" s="1"/>
+    </row>
+    <row r="49157" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49157" s="1"/>
+    </row>
+    <row r="49178" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49178" s="1"/>
+    </row>
+    <row r="49200" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49200" s="1"/>
+    </row>
+    <row r="49212" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49212" s="1"/>
+    </row>
+    <row r="49213" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49213" s="1"/>
+    </row>
+    <row r="49320" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49320" s="1"/>
+    </row>
+    <row r="49341" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49341" s="1"/>
+    </row>
+    <row r="49362" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49362" s="1"/>
+    </row>
+    <row r="49462" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49462" s="1"/>
+    </row>
+    <row r="49526" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49526" s="1"/>
+    </row>
+    <row r="49541" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49541" s="1"/>
+    </row>
+    <row r="49588" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49588" s="1"/>
+    </row>
+    <row r="49595" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49595" s="1"/>
+    </row>
+    <row r="49603" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49603" s="1"/>
+    </row>
+    <row r="49604" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49604" s="1"/>
+    </row>
+    <row r="49605" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49605" s="1"/>
+    </row>
+    <row r="49606" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49606" s="1"/>
+    </row>
+    <row r="49607" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49607" s="1"/>
+      <c r="B49607" s="1"/>
+    </row>
+    <row r="49608" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49608" s="1"/>
+    </row>
+    <row r="49609" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49609" s="1"/>
+    </row>
+    <row r="49610" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49610" s="1"/>
+    </row>
+    <row r="49611" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49611" s="1"/>
+    </row>
+    <row r="49612" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A49612" s="1"/>
+    </row>
+    <row r="49683" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A49683" s="1"/>
+    </row>
+    <row r="49684" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A49684" s="1"/>
+    </row>
+    <row r="49685" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A49685" s="1"/>
+    </row>
+    <row r="49686" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A49686" s="1"/>
+    </row>
+    <row r="49729" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49729" s="1"/>
+    </row>
+    <row r="49759" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49759" s="1"/>
+    </row>
+    <row r="49762" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49762" s="1"/>
+    </row>
+    <row r="49795" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49795" s="1"/>
+    </row>
+    <row r="49865" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49865" s="1"/>
+    </row>
+    <row r="49984" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49984" s="1"/>
+    </row>
+    <row r="49990" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B49990" s="1"/>
+    </row>
+    <row r="50075" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50075" s="1"/>
+    </row>
+    <row r="50096" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50096" s="1"/>
+    </row>
+    <row r="50105" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50105" s="1"/>
+    </row>
+    <row r="50106" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50106" s="1"/>
+    </row>
+    <row r="50107" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50107" s="1"/>
+    </row>
+    <row r="50108" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50108" s="1"/>
+    </row>
+    <row r="50109" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50109" s="1"/>
+    </row>
+    <row r="50120" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50120" s="1"/>
+    </row>
+    <row r="50153" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50153" s="1"/>
+    </row>
+    <row r="50166" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50166" s="1"/>
+    </row>
+    <row r="50268" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50268" s="1"/>
+    </row>
+    <row r="50269" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50269" s="1"/>
+    </row>
+    <row r="50270" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50270" s="1"/>
+    </row>
+    <row r="50271" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50271" s="1"/>
+    </row>
+    <row r="50272" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50272" s="1"/>
+    </row>
+    <row r="50273" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50273" s="1"/>
+    </row>
+    <row r="50274" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50274" s="1"/>
+    </row>
+    <row r="50275" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50275" s="1"/>
+    </row>
+    <row r="50289" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50289" s="1"/>
+    </row>
+    <row r="50293" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50293" s="1"/>
+    </row>
+    <row r="50350" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50350" s="1"/>
+    </row>
+    <row r="50422" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50422" s="1"/>
+    </row>
+    <row r="50561" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50561" s="1"/>
+    </row>
+    <row r="50568" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50568" s="1"/>
+    </row>
+    <row r="50646" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50646" s="1"/>
+    </row>
+    <row r="50665" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50665" s="1"/>
+    </row>
+    <row r="50673" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50673" s="1"/>
+    </row>
+    <row r="50700" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50700" s="1"/>
+    </row>
+    <row r="50720" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50720" s="1"/>
+    </row>
+    <row r="50754" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50754" s="1"/>
+    </row>
+    <row r="50755" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50755" s="1"/>
+    </row>
+    <row r="50756" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50756" s="1"/>
+    </row>
+    <row r="50757" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50757" s="1"/>
+    </row>
+    <row r="50758" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50758" s="1"/>
+    </row>
+    <row r="50759" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50759" s="1"/>
+    </row>
+    <row r="50760" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50760" s="1"/>
+    </row>
+    <row r="50768" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B50768" s="1"/>
+    </row>
+    <row r="50815" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50815" s="1"/>
+    </row>
+    <row r="50827" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50827" s="1"/>
+    </row>
+    <row r="50845" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50845" s="1"/>
+    </row>
+    <row r="50920" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50920" s="1"/>
+    </row>
+    <row r="50965" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B50965" s="1"/>
+    </row>
+    <row r="51005" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51005" s="1"/>
+    </row>
+    <row r="51079" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51079" s="1"/>
+    </row>
+    <row r="51082" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51082" s="1"/>
+    </row>
+    <row r="51084" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51084" s="1"/>
+    </row>
+    <row r="51157" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51157" s="1"/>
+    </row>
+    <row r="51202" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51202" s="1"/>
+    </row>
+    <row r="51205" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51205" s="1"/>
+    </row>
+    <row r="51265" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51265" s="1"/>
+    </row>
+    <row r="51324" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51324" s="1"/>
+    </row>
+    <row r="51339" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51339" s="1"/>
+    </row>
+    <row r="51340" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51340" s="1"/>
+    </row>
+    <row r="51341" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51341" s="1"/>
+    </row>
+    <row r="51342" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51342" s="1"/>
+    </row>
+    <row r="51343" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51343" s="1"/>
+    </row>
+    <row r="51344" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51344" s="1"/>
+    </row>
+    <row r="51345" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A51345" s="1"/>
+    </row>
+    <row r="51350" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B51350" s="1"/>
+    </row>
+    <row r="51362" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51362" s="1"/>
+    </row>
+    <row r="51384" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51384" s="1"/>
+    </row>
+    <row r="51513" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51513" s="1"/>
+    </row>
+    <row r="51514" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51514" s="1"/>
+    </row>
+    <row r="51515" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51515" s="1"/>
+    </row>
+    <row r="51516" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51516" s="1"/>
+    </row>
+    <row r="51517" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51517" s="1"/>
+    </row>
+    <row r="51518" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51518" s="1"/>
+    </row>
+    <row r="51519" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51519" s="1"/>
+    </row>
+    <row r="51534" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51534" s="1"/>
+    </row>
+    <row r="51535" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51535" s="1"/>
+    </row>
+    <row r="51546" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51546" s="1"/>
+    </row>
+    <row r="51564" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51564" s="1"/>
+    </row>
+    <row r="51576" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51576" s="1"/>
+    </row>
+    <row r="51624" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51624" s="1"/>
+    </row>
+    <row r="51625" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51625" s="1"/>
+    </row>
+    <row r="51642" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51642" s="1"/>
+    </row>
+    <row r="51714" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51714" s="1"/>
+    </row>
+    <row r="51806" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51806" s="1"/>
+    </row>
+    <row r="51847" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A51847" s="1"/>
+    </row>
+    <row r="51848" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A51848" s="1"/>
+    </row>
+    <row r="51849" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A51849" s="1"/>
+    </row>
+    <row r="51850" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A51850" s="1"/>
+    </row>
+    <row r="51854" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B51854" s="1"/>
+    </row>
+    <row r="51870" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51870" s="1"/>
+    </row>
+    <row r="51882" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51882" s="1"/>
+    </row>
+    <row r="51912" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51912" s="1"/>
+    </row>
+    <row r="51933" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B51933" s="1"/>
+    </row>
+    <row r="52014" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52014" s="1"/>
+    </row>
+    <row r="52042" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52042" s="1"/>
+    </row>
+    <row r="52130" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52130" s="1"/>
+    </row>
+    <row r="52133" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52133" s="1"/>
+    </row>
+    <row r="52139" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52139" s="1"/>
+    </row>
+    <row r="52235" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52235" s="1"/>
+    </row>
+    <row r="52243" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52243" s="1"/>
+    </row>
+    <row r="52308" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52308" s="1"/>
+    </row>
+    <row r="52312" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52312" s="1"/>
+    </row>
+    <row r="52395" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52395" s="1"/>
+    </row>
+    <row r="52408" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52408" s="1"/>
+    </row>
+    <row r="52426" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52426" s="1"/>
+    </row>
+    <row r="52467" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B52467" s="1"/>
+    </row>
+    <row r="52468" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B52468" s="1"/>
+    </row>
+    <row r="52480" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52480" s="1"/>
+    </row>
+    <row r="52481" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52481" s="1"/>
+    </row>
+    <row r="52482" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52482" s="1"/>
+    </row>
+    <row r="52483" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52483" s="1"/>
+    </row>
+    <row r="52484" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52484" s="1"/>
+    </row>
+    <row r="52485" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52485" s="1"/>
+    </row>
+    <row r="52486" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52486" s="1"/>
+    </row>
+    <row r="52487" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52487" s="1"/>
+    </row>
+    <row r="52521" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52521" s="1"/>
+    </row>
+    <row r="52522" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52522" s="1"/>
+    </row>
+    <row r="52523" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52523" s="1"/>
+    </row>
+    <row r="52524" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52524" s="1"/>
+    </row>
+    <row r="52525" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52525" s="1"/>
+    </row>
+    <row r="52526" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52526" s="1"/>
+    </row>
+    <row r="52543" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52543" s="1"/>
+    </row>
+    <row r="52544" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52544" s="1"/>
+    </row>
+    <row r="52545" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52545" s="1"/>
+    </row>
+    <row r="52546" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52546" s="1"/>
+    </row>
+    <row r="52547" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52547" s="1"/>
+    </row>
+    <row r="52548" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52548" s="1"/>
+    </row>
+    <row r="52549" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52549" s="1"/>
+    </row>
+    <row r="52552" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B52552" s="1"/>
+    </row>
+    <row r="52694" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52694" s="1"/>
+    </row>
+    <row r="52756" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52756" s="1"/>
+    </row>
+    <row r="52829" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B52829" s="1"/>
+    </row>
+    <row r="52939" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52939" s="1"/>
+    </row>
+    <row r="52940" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52940" s="1"/>
+    </row>
+    <row r="52941" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52941" s="1"/>
+    </row>
+    <row r="52942" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52942" s="1"/>
+    </row>
+    <row r="52943" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A52943" s="1"/>
+    </row>
+    <row r="53042" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53042" s="1"/>
+    </row>
+    <row r="53130" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53130" s="1"/>
+    </row>
+    <row r="53135" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53135" s="1"/>
+    </row>
+    <row r="53146" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53146" s="1"/>
+    </row>
+    <row r="53220" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53220" s="1"/>
+    </row>
+    <row r="53335" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53335" s="1"/>
+    </row>
+    <row r="53366" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53366" s="1"/>
+    </row>
+    <row r="53373" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53373" s="1"/>
+    </row>
+    <row r="53412" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53412" s="1"/>
+    </row>
+    <row r="53422" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53422" s="1"/>
+    </row>
+    <row r="53441" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53441" s="1"/>
+    </row>
+    <row r="53467" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A53467" s="1"/>
+    </row>
+    <row r="53468" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A53468" s="1"/>
+    </row>
+    <row r="53469" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A53469" s="1"/>
+    </row>
+    <row r="53470" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A53470" s="1"/>
+    </row>
+    <row r="53471" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A53471" s="1"/>
+    </row>
+    <row r="53472" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A53472" s="1"/>
+    </row>
+    <row r="53473" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53473" s="1"/>
+    </row>
+    <row r="53474" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53474" s="1"/>
+    </row>
+    <row r="53475" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53475" s="1"/>
+      <c r="B53475" s="1"/>
+    </row>
+    <row r="53476" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53476" s="1"/>
+    </row>
+    <row r="53477" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53477" s="1"/>
+    </row>
+    <row r="53478" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53478" s="1"/>
+    </row>
+    <row r="53479" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53479" s="1"/>
+    </row>
+    <row r="53480" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53480" s="1"/>
+    </row>
+    <row r="53481" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53481" s="1"/>
+    </row>
+    <row r="53482" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53482" s="1"/>
+    </row>
+    <row r="53483" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53483" s="1"/>
+    </row>
+    <row r="53484" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53484" s="1"/>
+    </row>
+    <row r="53485" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53485" s="1"/>
+    </row>
+    <row r="53528" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53528" s="1"/>
+    </row>
+    <row r="53536" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53536" s="1"/>
+    </row>
+    <row r="53569" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53569" s="1"/>
+    </row>
+    <row r="53636" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53636" s="1"/>
+    </row>
+    <row r="53678" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53678" s="1"/>
+    </row>
+    <row r="53690" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53690" s="1"/>
+    </row>
+    <row r="53727" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53727" s="1"/>
+    </row>
+    <row r="53830" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53830" s="1"/>
+    </row>
+    <row r="53861" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53861" s="1"/>
+    </row>
+    <row r="53904" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B53904" s="1"/>
+    </row>
+    <row r="54049" spans="2:2" x14ac:dyDescent="0.75">
+      <c r="B54049" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/dataset/data.xlsx
+++ b/input/dataset/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/Analysis/MSNAEducation/input/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7592643-7587-4107-8318-B7627CE19A7A}"/>
+  <xr:revisionPtr revIDLastSave="304" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{724387E6-D989-4B57-9CC6-01F5CAEDBF22}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="2" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
   </bookViews>
   <sheets>
     <sheet name="HH loop" sheetId="1" r:id="rId1"/>
@@ -259,13 +259,7 @@
     <t>difficulty_self_care</t>
   </si>
   <si>
-    <t>difficulty_communicating</t>
-  </si>
-  <si>
     <t>a_lot_of_difficulty</t>
-  </si>
-  <si>
-    <t>no_difficulty</t>
   </si>
   <si>
     <t>cannot_do_at_all</t>
@@ -277,7 +271,13 @@
     <t>some_difficulty</t>
   </si>
   <si>
-    <t>primary_grade_7</t>
+    <t>primary_grade_6</t>
+  </si>
+  <si>
+    <t>difficulty_communicating</t>
+  </si>
+  <si>
+    <t>none_difficulty</t>
   </si>
 </sst>
 </file>
@@ -1440,13 +1440,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D8463A-BC38-4B3C-A2FA-F7194594359A}">
   <dimension ref="A1:O54049"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
     <col min="6" max="6" width="40.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2219,7 +2219,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
@@ -8240,13 +8240,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E5E3D4-B3C4-4861-8FC5-05A8FCCE6E1C}">
   <dimension ref="A1:J54049"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
+    <col min="5" max="11" width="17.2265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.75">
@@ -8278,7 +8279,7 @@
         <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.75">
@@ -8295,22 +8296,22 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.75">
@@ -8327,22 +8328,22 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.75">
@@ -8359,22 +8360,22 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
         <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.75">
@@ -8391,22 +8392,22 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.75">
@@ -8423,22 +8424,22 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.75">
@@ -8455,22 +8456,22 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.75">
@@ -8487,22 +8488,22 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
         <v>75</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.75">
@@ -8519,22 +8520,22 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>75</v>
-      </c>
-      <c r="H9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.75">
@@ -8551,22 +8552,22 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.75">
@@ -8583,22 +8584,22 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.75">
@@ -8615,22 +8616,22 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
         <v>75</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.75">
@@ -8647,22 +8648,22 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
       <c r="J13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.75">
@@ -8679,22 +8680,22 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>75</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.75">
@@ -8711,22 +8712,22 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.75">
@@ -8743,22 +8744,22 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.75">
@@ -8775,22 +8776,22 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.75">

--- a/input/dataset/data.xlsx
+++ b/input/dataset/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/Analysis/MSNAEducation/input/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{724387E6-D989-4B57-9CC6-01F5CAEDBF22}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{F8FA1124-47E3-41F7-BA8D-0049A8410AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77BB2AA-EE4C-47B3-8683-5C7CEE0297FF}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="2" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11265" activeTab="1" xr2:uid="{6675326B-8B2D-4F8E-8948-650575623738}"/>
   </bookViews>
   <sheets>
     <sheet name="HH loop" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="80">
   <si>
     <t>uuid</t>
   </si>
@@ -1440,12 +1440,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D8463A-BC38-4B3C-A2FA-F7194594359A}">
   <dimension ref="A1:O54049"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="11.86328125" customWidth="1"/>
     <col min="6" max="6" width="40.54296875" customWidth="1"/>
   </cols>
@@ -2071,14 +2072,14 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
+      <c r="D14">
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -2087,16 +2088,16 @@
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
         <v>12</v>
@@ -2105,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="O14" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.75">
@@ -2249,24 +2250,2543 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.75">
-      <c r="B67" s="1"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N31" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N35" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5">
+        <v>14</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N38" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" t="s">
+        <v>12</v>
+      </c>
+      <c r="O39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
+        <v>57</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" t="s">
+        <v>12</v>
+      </c>
+      <c r="O41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" t="s">
+        <v>58</v>
+      </c>
+      <c r="O42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" t="s">
+        <v>12</v>
+      </c>
+      <c r="O43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" t="s">
+        <v>12</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
+        <v>12</v>
+      </c>
+      <c r="N46" t="s">
+        <v>12</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" t="s">
+        <v>12</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" t="s">
+        <v>12</v>
+      </c>
+      <c r="O48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" t="s">
+        <v>12</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" t="s">
+        <v>12</v>
+      </c>
+      <c r="N50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" t="s">
+        <v>12</v>
+      </c>
+      <c r="L51" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="5">
+        <v>14</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" t="s">
+        <v>12</v>
+      </c>
+      <c r="L54" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" t="s">
+        <v>12</v>
+      </c>
+      <c r="O54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" t="s">
+        <v>12</v>
+      </c>
+      <c r="O55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
+      </c>
+      <c r="L56" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" t="s">
+        <v>57</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L57" t="s">
+        <v>12</v>
+      </c>
+      <c r="M57" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" t="s">
+        <v>12</v>
+      </c>
+      <c r="O57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" t="s">
+        <v>58</v>
+      </c>
+      <c r="O58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" t="s">
+        <v>56</v>
+      </c>
+      <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" t="s">
+        <v>12</v>
+      </c>
+      <c r="O59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" t="s">
+        <v>12</v>
+      </c>
+      <c r="N60" t="s">
+        <v>12</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" t="s">
+        <v>12</v>
+      </c>
+      <c r="M61" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s">
+        <v>27</v>
+      </c>
+      <c r="M62" t="s">
+        <v>12</v>
+      </c>
+      <c r="N62" t="s">
+        <v>12</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" t="s">
+        <v>12</v>
+      </c>
+      <c r="O63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L64" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" t="s">
+        <v>12</v>
+      </c>
+      <c r="O64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" t="s">
+        <v>12</v>
+      </c>
+      <c r="N65" t="s">
+        <v>12</v>
+      </c>
+      <c r="O65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" t="s">
+        <v>12</v>
+      </c>
+      <c r="K66" t="s">
+        <v>12</v>
+      </c>
+      <c r="L66" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" t="s">
+        <v>12</v>
+      </c>
+      <c r="O66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" t="s">
+        <v>12</v>
+      </c>
+      <c r="L67" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" t="s">
+        <v>12</v>
+      </c>
+      <c r="O67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" t="s">
+        <v>12</v>
+      </c>
+      <c r="M68" t="s">
+        <v>12</v>
+      </c>
+      <c r="N68" t="s">
+        <v>12</v>
+      </c>
+      <c r="O68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" t="s">
+        <v>12</v>
+      </c>
+      <c r="K69" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" t="s">
+        <v>12</v>
+      </c>
+      <c r="M69" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" t="s">
+        <v>12</v>
+      </c>
+      <c r="O69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" t="s">
+        <v>12</v>
+      </c>
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" t="s">
+        <v>12</v>
+      </c>
+      <c r="N70" t="s">
+        <v>12</v>
+      </c>
+      <c r="O70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" t="s">
+        <v>12</v>
+      </c>
+      <c r="N71" t="s">
+        <v>12</v>
+      </c>
+      <c r="O71" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.75">
       <c r="B83" s="1"/>
@@ -8240,8 +10760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E5E3D4-B3C4-4861-8FC5-05A8FCCE6E1C}">
   <dimension ref="A1:J54049"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8676,8 +11196,8 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
+      <c r="D14">
+        <v>6</v>
       </c>
       <c r="E14" t="s">
         <v>74</v>
